--- a/Project_python/out/All/test_nature_short.xlsx
+++ b/Project_python/out/All/test_nature_short.xlsx
@@ -471,16 +471,16 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.21:14, 0.15:11</t>
+          <t>0.21:14, 0.15:11, 0.13:9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.197|x10: 0.000|x11: 0.173|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.000|x3: 0.136|x4: 0.141|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.066|x9: 0.186|x10: 0.000|x11: 0.246|x12: 0.159|x13: 0.097|x14: 0.500|x15: 0.000|x16: 0.186|x17: 0.000
-TOP2VEC -&gt; x1: 0.193|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.192|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.184|x12: 0.159|x13: 0.113|x14: 0.336|x15: 0.119|x16: 0.000|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.048|x2: 0.000|x3: 0.034|x4: 0.035|x5: 0.000|x6: 0.000|x7: 0.048|x8: 0.017|x9: 0.096|x10: 0.000|x11: 0.151|x12: 0.079|x13: 0.053|x14: 0.209|x15: 0.030|x16: 0.046|x17: 0.000
+TOP2VEC -&gt; x1: 0.193|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.191|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.184|x12: 0.159|x13: 0.113|x14: 0.336|x15: 0.119|x16: 0.000|x17: 0.000
+BERTOPIC -&gt; x1: 0.250|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.158|x9: 0.125|x10: 0.246|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.111|x2: 0.000|x3: 0.034|x4: 0.035|x5: 0.000|x6: 0.000|x7: 0.048|x8: 0.056|x9: 0.127|x10: 0.062|x11: 0.151|x12: 0.080|x13: 0.052|x14: 0.209|x15: 0.030|x16: 0.046|x17: 0.000
 </t>
         </is>
       </c>
@@ -501,7 +501,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.20:8, 0.19:9, 0.19:4, 0.16:10, 0.16:1</t>
+          <t>0.21:10, 0.19:4, 0.17:9</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -509,8 +509,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.140|x2: 0.000|x3: 0.000|x4: 0.260|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.070|x9: 0.116|x10: 0.144|x11: 0.066|x12: 0.062|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.157|x2: 0.175|x3: 0.075|x4: 0.283|x5: 0.000|x6: 0.000|x7: 0.072|x8: 0.302|x9: 0.272|x10: 0.156|x11: 0.000|x12: 0.000|x13: 0.059|x14: 0.120|x15: 0.150|x16: 0.000|x17: 0.000
 TOP2VEC -&gt; x1: 0.171|x2: 0.102|x3: 0.000|x4: 0.206|x5: 0.000|x6: 0.000|x7: 0.252|x8: 0.097|x9: 0.292|x10: 0.169|x11: 0.237|x12: 0.303|x13: 0.158|x14: 0.235|x15: 0.000|x16: 0.000|x17: 0.000
-BERTOPIC -&gt; x1: 0.180|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.341|x9: 0.071|x10: 0.188|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.162|x2: 0.069|x3: 0.019|x4: 0.187|x5: 0.000|x6: 0.000|x7: 0.081|x8: 0.202|x9: 0.188|x10: 0.164|x11: 0.076|x12: 0.091|x13: 0.054|x14: 0.089|x15: 0.037|x16: 0.000|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.385|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.117|x2: 0.069|x3: 0.019|x4: 0.187|x5: 0.000|x6: 0.000|x7: 0.081|x8: 0.117|x9: 0.170|x10: 0.214|x11: 0.076|x12: 0.091|x13: 0.054|x14: 0.089|x15: 0.037|x16: 0.000|x17: 0.000
 </t>
         </is>
       </c>
@@ -539,8 +539,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.139|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.290|x7: 0.000|x8: 0.000|x9: 0.074|x10: 0.000|x11: 0.000|x12: 0.080|x13: 0.000|x14: 0.078|x15: 0.138|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.118|x2: 0.229|x3: 0.111|x4: 0.190|x5: 0.227|x6: 0.114|x7: 0.065|x8: 0.073|x9: 0.129|x10: 0.078|x11: 0.000|x12: 0.054|x13: 0.068|x14: 0.149|x15: 0.062|x16: 0.153|x17: 0.000
 TOP2VEC -&gt; x1: 0.055|x2: 0.167|x3: 0.000|x4: 0.000|x5: 0.107|x6: 0.084|x7: 0.181|x8: 0.144|x9: 0.110|x10: 0.281|x11: 0.283|x12: 0.202|x13: 0.090|x14: 0.180|x15: 0.216|x16: 0.122|x17: 0.000
-BERTOPIC -&gt; x1: 0.067|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.500|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.060|x2: 0.134|x3: 0.028|x4: 0.047|x5: 0.084|x6: 0.122|x7: 0.062|x8: 0.054|x9: 0.078|x10: 0.090|x11: 0.071|x12: 0.084|x13: 0.164|x14: 0.102|x15: 0.104|x16: 0.069|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.500|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.043|x2: 0.134|x3: 0.028|x4: 0.047|x5: 0.084|x6: 0.122|x7: 0.062|x8: 0.054|x9: 0.078|x10: 0.090|x11: 0.071|x12: 0.084|x13: 0.164|x14: 0.102|x15: 0.104|x16: 0.069|x17: 0.000
 </t>
         </is>
       </c>
@@ -561,7 +561,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.37:10, 0.28:8, 0.23:1, 0.17:9, 0.14:16</t>
+          <t>0.37:10, 0.27:8, 0.23:1, 0.17:9, 0.14:16</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -569,8 +569,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.260|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.198|x9: 0.110|x10: 0.500|x11: 0.069|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.267|x17: 0.000
 LDA -&gt; x1: 0.103|x2: 0.143|x3: 0.203|x4: 0.195|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.374|x9: 0.080|x10: 0.475|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.247|x15: 0.000|x16: 0.000|x17: 0.000
 TOP2VEC -&gt; x1: 0.275|x2: 0.057|x3: 0.000|x4: 0.159|x5: 0.000|x6: 0.000|x7: 0.084|x8: 0.407|x9: 0.381|x10: 0.240|x11: 0.118|x12: 0.050|x13: 0.131|x14: 0.000|x15: 0.000|x16: 0.306|x17: 0.000
-BERTOPIC -&gt; x1: 0.264|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.144|x9: 0.108|x10: 0.264|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.225|x2: 0.050|x3: 0.051|x4: 0.089|x5: 0.000|x6: 0.000|x7: 0.021|x8: 0.281|x9: 0.170|x10: 0.370|x11: 0.047|x12: 0.013|x13: 0.033|x14: 0.062|x15: 0.000|x16: 0.143|x17: 0.000
+BERTOPIC -&gt; x1: 0.276|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.118|x9: 0.119|x10: 0.267|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.229|x2: 0.050|x3: 0.051|x4: 0.089|x5: 0.000|x6: 0.000|x7: 0.021|x8: 0.274|x9: 0.172|x10: 0.370|x11: 0.047|x12: 0.013|x13: 0.033|x14: 0.062|x15: 0.000|x16: 0.143|x17: 0.000
 </t>
         </is>
       </c>
@@ -621,7 +621,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.21:11, 0.16:4, 0.13:9</t>
+          <t>0.21:11, 0.16:4, 0.15:15, 0.13:9</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -629,8 +629,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.201|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.132|x10: 0.000|x11: 0.148|x12: 0.000|x13: 0.000|x14: 0.085|x15: 0.000|x16: 0.107|x17: 0.000
 LDA -&gt; x1: 0.128|x2: 0.156|x3: 0.253|x4: 0.183|x5: 0.077|x6: 0.000|x7: 0.070|x8: 0.128|x9: 0.108|x10: 0.000|x11: 0.196|x12: 0.000|x13: 0.268|x14: 0.067|x15: 0.082|x16: 0.103|x17: 0.000
 TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.263|x5: 0.301|x6: 0.442|x7: 0.496|x8: 0.000|x9: 0.274|x10: 0.000|x11: 0.500|x12: 0.412|x13: 0.000|x14: 0.000|x15: 0.200|x16: 0.102|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.032|x2: 0.039|x3: 0.063|x4: 0.162|x5: 0.094|x6: 0.111|x7: 0.142|x8: 0.032|x9: 0.129|x10: 0.000|x11: 0.211|x12: 0.103|x13: 0.067|x14: 0.038|x15: 0.071|x16: 0.078|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.311|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.032|x2: 0.039|x3: 0.063|x4: 0.162|x5: 0.094|x6: 0.110|x7: 0.142|x8: 0.032|x9: 0.129|x10: 0.000|x11: 0.211|x12: 0.103|x13: 0.067|x14: 0.038|x15: 0.148|x16: 0.078|x17: 0.000
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
 LDA -&gt; x1: 0.000|x2: 0.257|x3: 0.130|x4: 0.155|x5: 0.081|x6: 0.000|x7: 0.084|x8: 0.154|x9: 0.315|x10: 0.000|x11: 0.000|x12: 0.074|x13: 0.211|x14: 0.000|x15: 0.236|x16: 0.125|x17: 0.000
 TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.121|x5: 0.000|x6: 0.000|x7: 0.274|x8: 0.172|x9: 0.426|x10: 0.149|x11: 0.320|x12: 0.258|x13: 0.325|x14: 0.000|x15: 0.344|x16: 0.000|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.500|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.000|x2: 0.272|x3: 0.033|x4: 0.089|x5: 0.020|x6: 0.000|x7: 0.090|x8: 0.081|x9: 0.243|x10: 0.037|x11: 0.097|x12: 0.083|x13: 0.134|x14: 0.000|x15: 0.145|x16: 0.031|x17: 0.000
+MEAN -&gt; x1: 0.000|x2: 0.272|x3: 0.033|x4: 0.089|x5: 0.020|x6: 0.000|x7: 0.090|x8: 0.081|x9: 0.242|x10: 0.037|x11: 0.097|x12: 0.083|x13: 0.134|x14: 0.000|x15: 0.145|x16: 0.031|x17: 0.000
 </t>
         </is>
       </c>
@@ -681,7 +681,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.34:13, 0.18:2, 0.18:1</t>
+          <t>0.34:13, 0.17:2, 0.17:1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -689,8 +689,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.204|x2: 0.000|x3: 0.000|x4: 0.088|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.500|x14: 0.000|x15: 0.117|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.174|x2: 0.311|x3: 0.182|x4: 0.225|x5: 0.112|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.127|x13: 0.116|x14: 0.217|x15: 0.130|x16: 0.224|x17: 0.000
 TOP2VEC -&gt; x1: 0.174|x2: 0.293|x3: 0.000|x4: 0.000|x5: 0.068|x6: 0.000|x7: 0.135|x8: 0.000|x9: 0.000|x10: 0.276|x11: 0.101|x12: 0.080|x13: 0.224|x14: 0.230|x15: 0.000|x16: 0.000|x17: 0.000
-BERTOPIC -&gt; x1: 0.187|x2: 0.136|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.085|x12: 0.000|x13: 0.500|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.185|x2: 0.185|x3: 0.046|x4: 0.078|x5: 0.045|x6: 0.000|x7: 0.034|x8: 0.000|x9: 0.000|x10: 0.069|x11: 0.046|x12: 0.052|x13: 0.335|x14: 0.112|x15: 0.062|x16: 0.056|x17: 0.000
+BERTOPIC -&gt; x1: 0.120|x2: 0.087|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.500|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.168|x2: 0.173|x3: 0.046|x4: 0.078|x5: 0.045|x6: 0.000|x7: 0.034|x8: 0.000|x9: 0.000|x10: 0.069|x11: 0.025|x12: 0.052|x13: 0.335|x14: 0.112|x15: 0.062|x16: 0.056|x17: 0.000
 </t>
         </is>
       </c>
@@ -718,9 +718,9 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.075|x2: 0.236|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.182|x7: 0.000|x8: 0.000|x9: 0.139|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.220|x14: 0.000|x15: 0.079|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.145|x2: 0.124|x3: 0.180|x4: 0.259|x5: 0.000|x6: 0.000|x7: 0.105|x8: 0.131|x9: 0.217|x10: 0.159|x11: 0.061|x12: 0.000|x13: 0.200|x14: 0.108|x15: 0.130|x16: 0.000|x17: 0.000
-TOP2VEC -&gt; x1: 0.000|x2: 0.216|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.157|x7: 0.148|x8: 0.071|x9: 0.156|x10: 0.146|x11: 0.266|x12: 0.268|x13: 0.253|x14: 0.086|x15: 0.000|x16: 0.000|x17: 0.000
-BERTOPIC -&gt; x1: 0.238|x2: 0.172|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.119|x12: 0.000|x13: 0.456|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.115|x2: 0.187|x3: 0.045|x4: 0.065|x5: 0.000|x6: 0.085|x7: 0.063|x8: 0.050|x9: 0.128|x10: 0.076|x11: 0.111|x12: 0.067|x13: 0.282|x14: 0.048|x15: 0.052|x16: 0.000|x17: 0.000
+TOP2VEC -&gt; x1: 0.000|x2: 0.216|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.157|x7: 0.148|x8: 0.071|x9: 0.157|x10: 0.146|x11: 0.266|x12: 0.268|x13: 0.253|x14: 0.086|x15: 0.000|x16: 0.000|x17: 0.000
+BERTOPIC -&gt; x1: 0.240|x2: 0.173|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.114|x12: 0.000|x13: 0.458|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.115|x2: 0.188|x3: 0.045|x4: 0.065|x5: 0.000|x6: 0.085|x7: 0.063|x8: 0.050|x9: 0.128|x10: 0.076|x11: 0.110|x12: 0.067|x13: 0.283|x14: 0.048|x15: 0.052|x16: 0.000|x17: 0.000
 </t>
         </is>
       </c>
@@ -778,7 +778,7 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.269|x3: 0.000|x4: 0.066|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.068|x10: 0.090|x11: 0.070|x12: 0.116|x13: 0.000|x14: 0.000|x15: 0.337|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.269|x3: 0.000|x4: 0.234|x5: 0.068|x6: 0.123|x7: 0.085|x8: 0.000|x9: 0.094|x10: 0.071|x11: 0.060|x12: 0.159|x13: 0.000|x14: 0.232|x15: 0.188|x16: 0.238|x17: 0.000
-TOP2VEC -&gt; x1: 0.000|x2: 0.108|x3: 0.000|x4: 0.120|x5: 0.139|x6: 0.120|x7: 0.303|x8: 0.130|x9: 0.157|x10: 0.242|x11: 0.225|x12: 0.077|x13: 0.000|x14: 0.113|x15: 0.083|x16: 0.000|x17: 0.000
+TOP2VEC -&gt; x1: 0.000|x2: 0.108|x3: 0.000|x4: 0.119|x5: 0.139|x6: 0.120|x7: 0.303|x8: 0.130|x9: 0.158|x10: 0.242|x11: 0.225|x12: 0.077|x13: 0.000|x14: 0.113|x15: 0.083|x16: 0.000|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.500|x16: 0.000|x17: 0.000
 MEAN -&gt; x1: 0.000|x2: 0.161|x3: 0.000|x4: 0.105|x5: 0.052|x6: 0.061|x7: 0.097|x8: 0.033|x9: 0.080|x10: 0.101|x11: 0.089|x12: 0.088|x13: 0.000|x14: 0.086|x15: 0.277|x16: 0.059|x17: 0.000
 </t>
@@ -801,7 +801,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.35:2, 0.14:14, 0.13:13, 0.12:4</t>
+          <t>0.34:2, 0.14:14, 0.13:13, 0.12:4</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -809,8 +809,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.500|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.065|x10: 0.000|x11: 0.000|x12: 0.153|x13: 0.000|x14: 0.000|x15: 0.093|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.197|x3: 0.153|x4: 0.109|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.106|x13: 0.221|x14: 0.235|x15: 0.500|x16: 0.181|x17: 0.000
 TOP2VEC -&gt; x1: 0.500|x2: 0.230|x3: 0.000|x4: 0.390|x5: 0.054|x6: 0.000|x7: 0.156|x8: 0.138|x9: 0.051|x10: 0.000|x11: 0.090|x12: 0.101|x13: 0.296|x14: 0.344|x15: 0.062|x16: 0.000|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.477|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.125|x2: 0.351|x3: 0.038|x4: 0.125|x5: 0.014|x6: 0.000|x7: 0.039|x8: 0.035|x9: 0.029|x10: 0.000|x11: 0.022|x12: 0.090|x13: 0.129|x14: 0.145|x15: 0.164|x16: 0.045|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.425|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.125|x2: 0.338|x3: 0.038|x4: 0.125|x5: 0.014|x6: 0.000|x7: 0.039|x8: 0.035|x9: 0.029|x10: 0.000|x11: 0.022|x12: 0.090|x13: 0.129|x14: 0.145|x15: 0.164|x16: 0.045|x17: 0.000
 </t>
         </is>
       </c>
@@ -838,7 +838,7 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.263|x3: 0.321|x4: 0.164|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.104|x10: 0.000|x11: 0.070|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.117|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.156|x3: 0.228|x4: 0.418|x5: 0.053|x6: 0.000|x7: 0.000|x8: 0.173|x9: 0.114|x10: 0.000|x11: 0.138|x12: 0.000|x13: 0.000|x14: 0.259|x15: 0.279|x16: 0.000|x17: 0.000
-TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.154|x4: 0.122|x5: 0.115|x6: 0.300|x7: 0.287|x8: 0.000|x9: 0.152|x10: 0.000|x11: 0.320|x12: 0.077|x13: 0.066|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.154|x4: 0.122|x5: 0.115|x6: 0.300|x7: 0.287|x8: 0.000|x9: 0.152|x10: 0.000|x11: 0.320|x12: 0.078|x13: 0.066|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.500|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 MEAN -&gt; x1: 0.000|x2: 0.230|x3: 0.176|x4: 0.176|x5: 0.042|x6: 0.075|x7: 0.072|x8: 0.043|x9: 0.093|x10: 0.000|x11: 0.132|x12: 0.019|x13: 0.016|x14: 0.065|x15: 0.099|x16: 0.000|x17: 0.000
 </t>
@@ -861,7 +861,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.23:7, 0.17:13, 0.15:3</t>
+          <t>0.23:7, 0.16:13, 0.15:3</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -869,8 +869,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.200|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.099|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.060|x2: 0.170|x3: 0.191|x4: 0.171|x5: 0.000|x6: 0.000|x7: 0.434|x8: 0.000|x9: 0.290|x10: 0.155|x11: 0.000|x12: 0.093|x13: 0.077|x14: 0.000|x15: 0.064|x16: 0.117|x17: 0.000
 TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.208|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.500|x8: 0.135|x9: 0.000|x10: 0.194|x11: 0.107|x12: 0.360|x13: 0.353|x14: 0.000|x15: 0.000|x16: 0.362|x17: 0.000
-BERTOPIC -&gt; x1: 0.165|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.230|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.056|x2: 0.042|x3: 0.150|x4: 0.043|x5: 0.000|x6: 0.000|x7: 0.234|x8: 0.034|x9: 0.097|x10: 0.087|x11: 0.027|x12: 0.113|x13: 0.165|x14: 0.000|x15: 0.016|x16: 0.120|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.182|x12: 0.000|x13: 0.213|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.015|x2: 0.042|x3: 0.150|x4: 0.043|x5: 0.000|x6: 0.000|x7: 0.234|x8: 0.034|x9: 0.097|x10: 0.087|x11: 0.072|x12: 0.113|x13: 0.161|x14: 0.000|x15: 0.016|x16: 0.120|x17: 0.000
 </t>
         </is>
       </c>
@@ -930,7 +930,7 @@
 LDA -&gt; x1: 0.100|x2: 0.207|x3: 0.163|x4: 0.318|x5: 0.000|x6: 0.000|x7: 0.053|x8: 0.132|x9: 0.195|x10: 0.000|x11: 0.090|x12: 0.124|x13: 0.107|x14: 0.000|x15: 0.109|x16: 0.221|x17: 0.000
 TOP2VEC -&gt; x1: 0.178|x2: 0.000|x3: 0.167|x4: 0.282|x5: 0.091|x6: 0.078|x7: 0.378|x8: 0.084|x9: 0.088|x10: 0.056|x11: 0.120|x12: 0.310|x13: 0.175|x14: 0.000|x15: 0.113|x16: 0.075|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.500|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.069|x2: 0.052|x3: 0.207|x4: 0.246|x5: 0.023|x6: 0.020|x7: 0.108|x8: 0.054|x9: 0.109|x10: 0.014|x11: 0.053|x12: 0.108|x13: 0.071|x14: 0.000|x15: 0.056|x16: 0.074|x17: 0.000
+MEAN -&gt; x1: 0.069|x2: 0.052|x3: 0.208|x4: 0.246|x5: 0.023|x6: 0.020|x7: 0.108|x8: 0.054|x9: 0.109|x10: 0.014|x11: 0.053|x12: 0.108|x13: 0.071|x14: 0.000|x15: 0.056|x16: 0.074|x17: 0.000
 </t>
         </is>
       </c>
@@ -958,9 +958,9 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.195|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.217|x8: 0.115|x9: 0.101|x10: 0.075|x11: 0.000|x12: 0.000|x13: 0.131|x14: 0.000|x15: 0.102|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.164|x3: 0.099|x4: 0.111|x5: 0.066|x6: 0.000|x7: 0.123|x8: 0.163|x9: 0.081|x10: 0.000|x11: 0.060|x12: 0.145|x13: 0.130|x14: 0.253|x15: 0.191|x16: 0.232|x17: 0.000
-TOP2VEC -&gt; x1: 0.000|x2: 0.120|x3: 0.000|x4: 0.088|x5: 0.000|x6: 0.000|x7: 0.363|x8: 0.094|x9: 0.150|x10: 0.000|x11: 0.095|x12: 0.473|x13: 0.192|x14: 0.217|x15: 0.091|x16: 0.088|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.204|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.173|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.000|x2: 0.071|x3: 0.074|x4: 0.050|x5: 0.017|x6: 0.000|x7: 0.227|x8: 0.093|x9: 0.083|x10: 0.019|x11: 0.039|x12: 0.198|x13: 0.113|x14: 0.117|x15: 0.096|x16: 0.080|x17: 0.000
+TOP2VEC -&gt; x1: 0.000|x2: 0.120|x3: 0.000|x4: 0.089|x5: 0.000|x6: 0.000|x7: 0.363|x8: 0.094|x9: 0.150|x10: 0.000|x11: 0.095|x12: 0.473|x13: 0.192|x14: 0.217|x15: 0.091|x16: 0.088|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.210|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.167|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.000|x2: 0.071|x3: 0.074|x4: 0.050|x5: 0.017|x6: 0.000|x7: 0.228|x8: 0.093|x9: 0.083|x10: 0.019|x11: 0.039|x12: 0.196|x13: 0.113|x14: 0.117|x15: 0.096|x16: 0.080|x17: 0.000
 </t>
         </is>
       </c>
@@ -981,16 +981,16 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.24:9, 0.21:13, 0.18:7</t>
+          <t>0.24:9, 0.18:7, 0.18:13</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.362|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.067|x3: 0.231|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.226|x8: 0.082|x9: 0.346|x10: 0.112|x11: 0.000|x12: 0.082|x13: 0.214|x14: 0.076|x15: 0.245|x16: 0.140|x17: 0.000
-TOP2VEC -&gt; x1: 0.058|x2: 0.145|x3: 0.000|x4: 0.300|x5: 0.000|x6: 0.122|x7: 0.232|x8: 0.140|x9: 0.254|x10: 0.244|x11: 0.221|x12: 0.070|x13: 0.486|x14: 0.053|x15: 0.194|x16: 0.000|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.250|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.100|x12: 0.168|x13: 0.141|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.015|x2: 0.053|x3: 0.058|x4: 0.075|x5: 0.000|x6: 0.031|x7: 0.177|x8: 0.056|x9: 0.240|x10: 0.089|x11: 0.080|x12: 0.080|x13: 0.210|x14: 0.032|x15: 0.110|x16: 0.035|x17: 0.000
+TOP2VEC -&gt; x1: 0.058|x2: 0.145|x3: 0.000|x4: 0.299|x5: 0.000|x6: 0.122|x7: 0.232|x8: 0.140|x9: 0.254|x10: 0.244|x11: 0.221|x12: 0.070|x13: 0.486|x14: 0.053|x15: 0.194|x16: 0.000|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.277|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.144|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.015|x2: 0.053|x3: 0.058|x4: 0.075|x5: 0.000|x6: 0.031|x7: 0.184|x8: 0.056|x9: 0.240|x10: 0.089|x11: 0.055|x12: 0.074|x13: 0.175|x14: 0.032|x15: 0.110|x16: 0.035|x17: 0.000
 </t>
         </is>
       </c>
@@ -1011,16 +1011,16 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.29:12, 0.19:14, 0.19:13, 0.13:7</t>
+          <t>0.29:12, 0.19:13, 0.19:14, 0.15:7</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.089|x4: 0.000|x5: 0.000|x6: 0.101|x7: 0.000|x8: 0.000|x9: 0.088|x10: 0.000|x11: 0.110|x12: 0.263|x13: 0.000|x14: 0.133|x15: 0.192|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.058|x3: 0.362|x4: 0.170|x5: 0.000|x6: 0.000|x7: 0.139|x8: 0.000|x9: 0.183|x10: 0.000|x11: 0.148|x12: 0.079|x13: 0.218|x14: 0.356|x15: 0.000|x16: 0.107|x17: 0.000
-TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.084|x7: 0.267|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.207|x12: 0.320|x13: 0.453|x14: 0.263|x15: 0.173|x16: 0.000|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.126|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.500|x13: 0.071|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.000|x2: 0.015|x3: 0.113|x4: 0.042|x5: 0.000|x6: 0.046|x7: 0.133|x8: 0.000|x9: 0.068|x10: 0.000|x11: 0.116|x12: 0.290|x13: 0.186|x14: 0.188|x15: 0.091|x16: 0.027|x17: 0.000
+TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.084|x7: 0.267|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.206|x12: 0.320|x13: 0.453|x14: 0.263|x15: 0.173|x16: 0.000|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.193|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.490|x13: 0.100|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.000|x2: 0.015|x3: 0.113|x4: 0.042|x5: 0.000|x6: 0.046|x7: 0.150|x8: 0.000|x9: 0.068|x10: 0.000|x11: 0.116|x12: 0.288|x13: 0.193|x14: 0.188|x15: 0.091|x16: 0.027|x17: 0.000
 </t>
         </is>
       </c>
@@ -1048,7 +1048,7 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.120|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.108|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.137|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.000|x3: 0.318|x4: 0.000|x5: 0.255|x6: 0.000|x7: 0.059|x8: 0.144|x9: 0.000|x10: 0.140|x11: 0.000|x12: 0.079|x13: 0.174|x14: 0.255|x15: 0.206|x16: 0.190|x17: 0.000
-TOP2VEC -&gt; x1: 0.060|x2: 0.000|x3: 0.248|x4: 0.000|x5: 0.078|x6: 0.110|x7: 0.167|x8: 0.000|x9: 0.109|x10: 0.154|x11: 0.161|x12: 0.089|x13: 0.484|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+TOP2VEC -&gt; x1: 0.060|x2: 0.000|x3: 0.248|x4: 0.000|x5: 0.078|x6: 0.110|x7: 0.167|x8: 0.000|x9: 0.110|x10: 0.154|x11: 0.161|x12: 0.089|x13: 0.484|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.500|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 MEAN -&gt; x1: 0.015|x2: 0.000|x3: 0.297|x4: 0.000|x5: 0.083|x6: 0.028|x7: 0.056|x8: 0.036|x9: 0.054|x10: 0.074|x11: 0.040|x12: 0.042|x13: 0.165|x14: 0.064|x15: 0.086|x16: 0.048|x17: 0.000
 </t>
@@ -1078,9 +1078,9 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.136|x4: 0.156|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.077|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.389|x2: 0.165|x3: 0.301|x4: 0.432|x5: 0.000|x6: 0.000|x7: 0.130|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.111|x13: 0.000|x14: 0.000|x15: 0.104|x16: 0.188|x17: 0.000
-TOP2VEC -&gt; x1: 0.127|x2: 0.000|x3: 0.273|x4: 0.246|x5: 0.000|x6: 0.000|x7: 0.146|x8: 0.068|x9: 0.117|x10: 0.000|x11: 0.090|x12: 0.334|x13: 0.378|x14: 0.251|x15: 0.095|x16: 0.188|x17: 0.000
-BERTOPIC -&gt; x1: 0.233|x2: 0.175|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.090|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.122|x12: 0.091|x13: 0.276|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.187|x2: 0.085|x3: 0.178|x4: 0.208|x5: 0.000|x6: 0.000|x7: 0.091|x8: 0.017|x9: 0.029|x10: 0.000|x11: 0.053|x12: 0.153|x13: 0.163|x14: 0.063|x15: 0.050|x16: 0.094|x17: 0.000
+TOP2VEC -&gt; x1: 0.128|x2: 0.000|x3: 0.273|x4: 0.246|x5: 0.000|x6: 0.000|x7: 0.146|x8: 0.068|x9: 0.117|x10: 0.000|x11: 0.090|x12: 0.334|x13: 0.378|x14: 0.251|x15: 0.095|x16: 0.188|x17: 0.000
+BERTOPIC -&gt; x1: 0.239|x2: 0.180|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.089|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.123|x12: 0.092|x13: 0.263|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.189|x2: 0.086|x3: 0.178|x4: 0.208|x5: 0.000|x6: 0.000|x7: 0.091|x8: 0.017|x9: 0.029|x10: 0.000|x11: 0.053|x12: 0.153|x13: 0.160|x14: 0.063|x15: 0.050|x16: 0.094|x17: 0.000
 </t>
         </is>
       </c>
@@ -1108,7 +1108,7 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.249|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.291|x9: 0.000|x10: 0.000|x11: 0.088|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.108|x3: 0.248|x4: 0.218|x5: 0.141|x6: 0.000|x7: 0.109|x8: 0.072|x9: 0.080|x10: 0.140|x11: 0.000|x12: 0.000|x13: 0.070|x14: 0.500|x15: 0.000|x16: 0.091|x17: 0.000
-TOP2VEC -&gt; x1: 0.074|x2: 0.077|x3: 0.109|x4: 0.432|x5: 0.213|x6: 0.000|x7: 0.365|x8: 0.139|x9: 0.181|x10: 0.168|x11: 0.117|x12: 0.113|x13: 0.000|x14: 0.206|x15: 0.000|x16: 0.288|x17: 0.000
+TOP2VEC -&gt; x1: 0.074|x2: 0.077|x3: 0.109|x4: 0.432|x5: 0.213|x6: 0.000|x7: 0.365|x8: 0.139|x9: 0.180|x10: 0.168|x11: 0.117|x12: 0.113|x13: 0.000|x14: 0.206|x15: 0.000|x16: 0.288|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.395|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 MEAN -&gt; x1: 0.018|x2: 0.046|x3: 0.151|x4: 0.163|x5: 0.088|x6: 0.000|x7: 0.119|x8: 0.126|x9: 0.065|x10: 0.077|x11: 0.051|x12: 0.028|x13: 0.116|x14: 0.177|x15: 0.000|x16: 0.095|x17: 0.000
 </t>
@@ -1168,9 +1168,9 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.241|x10: 0.000|x11: 0.112|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.078|x2: 0.062|x3: 0.157|x4: 0.161|x5: 0.075|x6: 0.000|x7: 0.140|x8: 0.392|x9: 0.241|x10: 0.096|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.418|x15: 0.000|x16: 0.000|x17: 0.000
-TOP2VEC -&gt; x1: 0.338|x2: 0.198|x3: 0.347|x4: 0.000|x5: 0.000|x6: 0.450|x7: 0.130|x8: 0.278|x9: 0.208|x10: 0.000|x11: 0.233|x12: 0.214|x13: 0.118|x14: 0.227|x15: 0.000|x16: 0.116|x17: 0.000
+TOP2VEC -&gt; x1: 0.338|x2: 0.198|x3: 0.347|x4: 0.000|x5: 0.000|x6: 0.450|x7: 0.130|x8: 0.278|x9: 0.208|x10: 0.000|x11: 0.232|x12: 0.214|x13: 0.118|x14: 0.227|x15: 0.000|x16: 0.117|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.500|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.104|x2: 0.065|x3: 0.251|x4: 0.040|x5: 0.019|x6: 0.112|x7: 0.068|x8: 0.168|x9: 0.172|x10: 0.024|x11: 0.086|x12: 0.053|x13: 0.030|x14: 0.161|x15: 0.000|x16: 0.029|x17: 0.000
+MEAN -&gt; x1: 0.104|x2: 0.065|x3: 0.251|x4: 0.040|x5: 0.019|x6: 0.112|x7: 0.068|x8: 0.168|x9: 0.172|x10: 0.024|x11: 0.086|x12: 0.054|x13: 0.030|x14: 0.161|x15: 0.000|x16: 0.029|x17: 0.000
 </t>
         </is>
       </c>
@@ -1198,7 +1198,7 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.258|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.067|x8: 0.222|x9: 0.070|x10: 0.067|x11: 0.000|x12: 0.178|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.107|x2: 0.269|x3: 0.155|x4: 0.093|x5: 0.085|x6: 0.237|x7: 0.124|x8: 0.145|x9: 0.166|x10: 0.139|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.107|x15: 0.088|x16: 0.105|x17: 0.000
-TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.110|x4: 0.097|x5: 0.000|x6: 0.131|x7: 0.500|x8: 0.000|x9: 0.440|x10: 0.147|x11: 0.056|x12: 0.430|x13: 0.233|x14: 0.203|x15: 0.000|x16: 0.000|x17: 0.000
+TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.110|x4: 0.097|x5: 0.000|x6: 0.131|x7: 0.500|x8: 0.000|x9: 0.441|x10: 0.147|x11: 0.056|x12: 0.429|x13: 0.232|x14: 0.203|x15: 0.000|x16: 0.000|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.500|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 MEAN -&gt; x1: 0.027|x2: 0.067|x3: 0.131|x4: 0.047|x5: 0.021|x6: 0.217|x7: 0.173|x8: 0.092|x9: 0.169|x10: 0.088|x11: 0.014|x12: 0.152|x13: 0.058|x14: 0.077|x15: 0.022|x16: 0.026|x17: 0.000
 </t>
@@ -1221,16 +1221,16 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.28:12, 0.22:9, 0.19:7, 0.13:8</t>
+          <t>0.22:9, 0.21:12, 0.20:7, 0.13:8</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.238|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.287|x9: 0.082|x10: 0.000|x11: 0.000|x12: 0.209|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.370|x3: 0.061|x4: 0.436|x5: 0.223|x6: 0.000|x7: 0.101|x8: 0.000|x9: 0.377|x10: 0.000|x11: 0.000|x12: 0.075|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.176|x17: 0.000
-TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.160|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.500|x8: 0.245|x9: 0.407|x10: 0.061|x11: 0.252|x12: 0.359|x13: 0.277|x14: 0.176|x15: 0.000|x16: 0.196|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.159|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.077|x12: 0.463|x13: 0.091|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.000|x2: 0.093|x3: 0.115|x4: 0.109|x5: 0.056|x6: 0.000|x7: 0.190|x8: 0.133|x9: 0.216|x10: 0.015|x11: 0.082|x12: 0.276|x13: 0.092|x14: 0.044|x15: 0.000|x16: 0.093|x17: 0.000
+TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.160|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.500|x8: 0.245|x9: 0.406|x10: 0.061|x11: 0.252|x12: 0.359|x13: 0.277|x14: 0.176|x15: 0.000|x16: 0.196|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.188|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.189|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.000|x2: 0.093|x3: 0.115|x4: 0.109|x5: 0.056|x6: 0.000|x7: 0.197|x8: 0.133|x9: 0.216|x10: 0.015|x11: 0.063|x12: 0.208|x13: 0.069|x14: 0.044|x15: 0.000|x16: 0.093|x17: 0.000
 </t>
         </is>
       </c>
@@ -1258,7 +1258,7 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.061|x3: 0.245|x4: 0.000|x5: 0.228|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.144|x10: 0.000|x11: 0.071|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.375|x3: 0.264|x4: 0.000|x5: 0.166|x6: 0.000|x7: 0.073|x8: 0.208|x9: 0.274|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.198|x14: 0.153|x15: 0.109|x16: 0.000|x17: 0.000
-TOP2VEC -&gt; x1: 0.174|x2: 0.251|x3: 0.000|x4: 0.000|x5: 0.076|x6: 0.000|x7: 0.172|x8: 0.000|x9: 0.000|x10: 0.106|x11: 0.211|x12: 0.174|x13: 0.278|x14: 0.114|x15: 0.000|x16: 0.242|x17: 0.000
+TOP2VEC -&gt; x1: 0.175|x2: 0.251|x3: 0.000|x4: 0.000|x5: 0.076|x6: 0.000|x7: 0.172|x8: 0.000|x9: 0.000|x10: 0.106|x11: 0.211|x12: 0.174|x13: 0.278|x14: 0.114|x15: 0.000|x16: 0.242|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.500|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 MEAN -&gt; x1: 0.044|x2: 0.172|x3: 0.252|x4: 0.000|x5: 0.118|x6: 0.000|x7: 0.061|x8: 0.052|x9: 0.104|x10: 0.027|x11: 0.070|x12: 0.044|x13: 0.119|x14: 0.067|x15: 0.027|x16: 0.060|x17: 0.000
 </t>
@@ -1288,7 +1288,7 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.500|x4: 0.000|x5: 0.256|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.090|x14: 0.000|x15: 0.097|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.103|x3: 0.500|x4: 0.120|x5: 0.164|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.062|x11: 0.000|x12: 0.000|x13: 0.330|x14: 0.000|x15: 0.112|x16: 0.115|x17: 0.000
-TOP2VEC -&gt; x1: 0.000|x2: 0.174|x3: 0.500|x4: 0.000|x5: 0.119|x6: 0.000|x7: 0.063|x8: 0.000|x9: 0.000|x10: 0.241|x11: 0.000|x12: 0.352|x13: 0.114|x14: 0.000|x15: 0.000|x16: 0.245|x17: 0.000
+TOP2VEC -&gt; x1: 0.000|x2: 0.174|x3: 0.500|x4: 0.000|x5: 0.120|x6: 0.000|x7: 0.063|x8: 0.000|x9: 0.000|x10: 0.241|x11: 0.000|x12: 0.352|x13: 0.114|x14: 0.000|x15: 0.000|x16: 0.245|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.500|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 MEAN -&gt; x1: 0.000|x2: 0.069|x3: 0.500|x4: 0.030|x5: 0.135|x6: 0.000|x7: 0.016|x8: 0.000|x9: 0.000|x10: 0.076|x11: 0.000|x12: 0.088|x13: 0.134|x14: 0.000|x15: 0.052|x16: 0.090|x17: 0.000
 </t>
@@ -1350,7 +1350,7 @@
 LDA -&gt; x1: 0.000|x2: 0.321|x3: 0.140|x4: 0.174|x5: 0.086|x6: 0.120|x7: 0.149|x8: 0.000|x9: 0.055|x10: 0.150|x11: 0.000|x12: 0.070|x13: 0.198|x14: 0.000|x15: 0.257|x16: 0.101|x17: 0.000
 TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.190|x7: 0.500|x8: 0.000|x9: 0.000|x10: 0.132|x11: 0.218|x12: 0.500|x13: 0.158|x14: 0.266|x15: 0.256|x16: 0.000|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.500|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.000|x2: 0.080|x3: 0.035|x4: 0.083|x5: 0.021|x6: 0.203|x7: 0.162|x8: 0.000|x9: 0.046|x10: 0.070|x11: 0.085|x12: 0.142|x13: 0.089|x14: 0.066|x15: 0.157|x16: 0.025|x17: 0.000
+MEAN -&gt; x1: 0.000|x2: 0.080|x3: 0.035|x4: 0.083|x5: 0.021|x6: 0.203|x7: 0.162|x8: 0.000|x9: 0.046|x10: 0.070|x11: 0.085|x12: 0.143|x13: 0.089|x14: 0.066|x15: 0.157|x16: 0.025|x17: 0.000
 </t>
         </is>
       </c>
@@ -1378,7 +1378,7 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.151|x4: 0.229|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.098|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.188|x3: 0.302|x4: 0.500|x5: 0.141|x6: 0.000|x7: 0.109|x8: 0.000|x9: 0.119|x10: 0.000|x11: 0.000|x12: 0.066|x13: 0.091|x14: 0.130|x15: 0.000|x16: 0.113|x17: 0.000
-TOP2VEC -&gt; x1: 0.218|x2: 0.000|x3: 0.234|x4: 0.446|x5: 0.139|x6: 0.000|x7: 0.186|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.176|x12: 0.111|x13: 0.000|x14: 0.078|x15: 0.000|x16: 0.072|x17: 0.000
+TOP2VEC -&gt; x1: 0.218|x2: 0.000|x3: 0.234|x4: 0.445|x5: 0.139|x6: 0.000|x7: 0.186|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.176|x12: 0.111|x13: 0.000|x14: 0.078|x15: 0.000|x16: 0.072|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.500|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 MEAN -&gt; x1: 0.055|x2: 0.047|x3: 0.297|x4: 0.294|x5: 0.070|x6: 0.000|x7: 0.074|x8: 0.000|x9: 0.054|x10: 0.000|x11: 0.044|x12: 0.044|x13: 0.023|x14: 0.052|x15: 0.000|x16: 0.046|x17: 0.000
 </t>
@@ -1408,9 +1408,9 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.087|x2: 0.000|x3: 0.169|x4: 0.172|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.153|x2: 0.139|x3: 0.318|x4: 0.448|x5: 0.256|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.132|x10: 0.000|x11: 0.000|x12: 0.094|x13: 0.110|x14: 0.000|x15: 0.000|x16: 0.171|x17: 0.000
-TOP2VEC -&gt; x1: 0.000|x2: 0.218|x3: 0.270|x4: 0.218|x5: 0.059|x6: 0.500|x7: 0.163|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.252|x12: 0.281|x13: 0.071|x14: 0.188|x15: 0.000|x16: 0.000|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.124|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.500|x17: 0.000
-MEAN -&gt; x1: 0.060|x2: 0.089|x3: 0.189|x4: 0.210|x5: 0.110|x6: 0.125|x7: 0.041|x8: 0.000|x9: 0.033|x10: 0.000|x11: 0.063|x12: 0.094|x13: 0.045|x14: 0.047|x15: 0.000|x16: 0.168|x17: 0.000
+TOP2VEC -&gt; x1: 0.000|x2: 0.218|x3: 0.270|x4: 0.219|x5: 0.059|x6: 0.500|x7: 0.163|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.252|x12: 0.281|x13: 0.071|x14: 0.188|x15: 0.000|x16: 0.000|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.500|x17: 0.000
+MEAN -&gt; x1: 0.060|x2: 0.089|x3: 0.189|x4: 0.210|x5: 0.079|x6: 0.125|x7: 0.041|x8: 0.000|x9: 0.033|x10: 0.000|x11: 0.063|x12: 0.094|x13: 0.045|x14: 0.047|x15: 0.000|x16: 0.168|x17: 0.000
 </t>
         </is>
       </c>
@@ -1529,8 +1529,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.073|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.144|x10: 0.000|x11: 0.073|x12: 0.193|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.121|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.298|x3: 0.000|x4: 0.180|x5: 0.000|x6: 0.000|x7: 0.079|x8: 0.272|x9: 0.295|x10: 0.067|x11: 0.000|x12: 0.184|x13: 0.000|x14: 0.000|x15: 0.133|x16: 0.312|x17: 0.000
 TOP2VEC -&gt; x1: 0.163|x2: 0.000|x3: 0.088|x4: 0.185|x5: 0.334|x6: 0.000|x7: 0.225|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.081|x12: 0.351|x13: 0.111|x14: 0.210|x15: 0.000|x16: 0.208|x17: 0.000
-BERTOPIC -&gt; x1: 0.177|x2: 0.130|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.080|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.101|x12: 0.079|x13: 0.418|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.085|x2: 0.107|x3: 0.022|x4: 0.110|x5: 0.083|x6: 0.000|x7: 0.096|x8: 0.068|x9: 0.110|x10: 0.017|x11: 0.064|x12: 0.202|x13: 0.132|x14: 0.052|x15: 0.033|x16: 0.160|x17: 0.000
+BERTOPIC -&gt; x1: 0.174|x2: 0.128|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.080|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.100|x12: 0.079|x13: 0.424|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.084|x2: 0.107|x3: 0.022|x4: 0.110|x5: 0.083|x6: 0.000|x7: 0.096|x8: 0.068|x9: 0.110|x10: 0.017|x11: 0.064|x12: 0.202|x13: 0.134|x14: 0.052|x15: 0.033|x16: 0.160|x17: 0.000
 </t>
         </is>
       </c>
@@ -1588,9 +1588,9 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.098|x2: 0.000|x3: 0.300|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.090|x10: 0.000|x11: 0.068|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.082|x17: 0.000
 LDA -&gt; x1: 0.224|x2: 0.064|x3: 0.290|x4: 0.183|x5: 0.000|x6: 0.000|x7: 0.051|x8: 0.100|x9: 0.184|x10: 0.135|x11: 0.000|x12: 0.096|x13: 0.389|x14: 0.000|x15: 0.000|x16: 0.104|x17: 0.000
-TOP2VEC -&gt; x1: 0.000|x2: 0.070|x3: 0.138|x4: 0.000|x5: 0.106|x6: 0.350|x7: 0.206|x8: 0.000|x9: 0.000|x10: 0.055|x11: 0.238|x12: 0.407|x13: 0.000|x14: 0.082|x15: 0.161|x16: 0.242|x17: 0.000
+TOP2VEC -&gt; x1: 0.000|x2: 0.069|x3: 0.138|x4: 0.000|x5: 0.106|x6: 0.350|x7: 0.206|x8: 0.000|x9: 0.000|x10: 0.055|x11: 0.239|x12: 0.406|x13: 0.000|x14: 0.082|x15: 0.161|x16: 0.242|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.500|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.081|x2: 0.033|x3: 0.307|x4: 0.046|x5: 0.026|x6: 0.087|x7: 0.064|x8: 0.025|x9: 0.069|x10: 0.048|x11: 0.076|x12: 0.126|x13: 0.097|x14: 0.021|x15: 0.040|x16: 0.107|x17: 0.000
+MEAN -&gt; x1: 0.081|x2: 0.033|x3: 0.307|x4: 0.046|x5: 0.026|x6: 0.088|x7: 0.064|x8: 0.025|x9: 0.069|x10: 0.048|x11: 0.077|x12: 0.126|x13: 0.097|x14: 0.021|x15: 0.040|x16: 0.107|x17: 0.000
 </t>
         </is>
       </c>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.22:12, 0.15:9, 0.15:4, 0.14:13, 0.13:7</t>
+          <t>0.19:12, 0.17:13, 0.15:9, 0.15:4</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1619,8 +1619,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.127|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.092|x10: 0.000|x11: 0.000|x12: 0.200|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.068|x3: 0.000|x4: 0.197|x5: 0.054|x6: 0.000|x7: 0.226|x8: 0.254|x9: 0.308|x10: 0.063|x11: 0.122|x12: 0.079|x13: 0.000|x14: 0.000|x15: 0.313|x16: 0.136|x17: 0.000
 TOP2VEC -&gt; x1: 0.137|x2: 0.000|x3: 0.054|x4: 0.284|x5: 0.353|x6: 0.000|x7: 0.215|x8: 0.148|x9: 0.217|x10: 0.252|x11: 0.114|x12: 0.500|x13: 0.193|x14: 0.413|x15: 0.000|x16: 0.139|x17: 0.000
-BERTOPIC -&gt; x1: 0.190|x2: 0.140|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.088|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.111|x12: 0.087|x13: 0.369|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.082|x2: 0.052|x3: 0.013|x4: 0.152|x5: 0.102|x6: 0.000|x7: 0.132|x8: 0.100|x9: 0.154|x10: 0.079|x11: 0.087|x12: 0.216|x13: 0.140|x14: 0.103|x15: 0.078|x16: 0.069|x17: 0.000
+BERTOPIC -&gt; x1: 0.158|x2: 0.117|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.085|x12: 0.000|x13: 0.500|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.074|x2: 0.046|x3: 0.013|x4: 0.152|x5: 0.102|x6: 0.000|x7: 0.110|x8: 0.100|x9: 0.154|x10: 0.079|x11: 0.080|x12: 0.195|x13: 0.173|x14: 0.103|x15: 0.078|x16: 0.069|x17: 0.000
 </t>
         </is>
       </c>
@@ -1648,7 +1648,7 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.402|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.159|x10: 0.000|x11: 0.082|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.182|x3: 0.295|x4: 0.397|x5: 0.177|x6: 0.000|x7: 0.070|x8: 0.000|x9: 0.264|x10: 0.000|x11: 0.000|x12: 0.066|x13: 0.093|x14: 0.000|x15: 0.134|x16: 0.142|x17: 0.000
-TOP2VEC -&gt; x1: 0.000|x2: 0.069|x3: 0.000|x4: 0.096|x5: 0.000|x6: 0.000|x7: 0.198|x8: 0.087|x9: 0.227|x10: 0.211|x11: 0.281|x12: 0.162|x13: 0.070|x14: 0.126|x15: 0.000|x16: 0.000|x17: 0.000
+TOP2VEC -&gt; x1: 0.000|x2: 0.069|x3: 0.000|x4: 0.096|x5: 0.000|x6: 0.000|x7: 0.198|x8: 0.087|x9: 0.227|x10: 0.211|x11: 0.281|x12: 0.163|x13: 0.070|x14: 0.126|x15: 0.000|x16: 0.000|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.500|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 MEAN -&gt; x1: 0.000|x2: 0.063|x3: 0.299|x4: 0.123|x5: 0.044|x6: 0.000|x7: 0.067|x8: 0.022|x9: 0.162|x10: 0.053|x11: 0.091|x12: 0.057|x13: 0.041|x14: 0.032|x15: 0.034|x16: 0.036|x17: 0.000
 </t>
@@ -1708,7 +1708,7 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.355|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.066|x10: 0.000|x11: 0.064|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.000|x3: 0.411|x4: 0.070|x5: 0.168|x6: 0.087|x7: 0.056|x8: 0.000|x9: 0.000|x10: 0.087|x11: 0.000|x12: 0.078|x13: 0.308|x14: 0.146|x15: 0.274|x16: 0.134|x17: 0.000
-TOP2VEC -&gt; x1: 0.000|x2: 0.055|x3: 0.399|x4: 0.000|x5: 0.000|x6: 0.150|x7: 0.119|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.204|x12: 0.459|x13: 0.273|x14: 0.317|x15: 0.079|x16: 0.000|x17: 0.000
+TOP2VEC -&gt; x1: 0.000|x2: 0.055|x3: 0.399|x4: 0.000|x5: 0.000|x6: 0.151|x7: 0.119|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.204|x12: 0.459|x13: 0.273|x14: 0.317|x15: 0.079|x16: 0.000|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.500|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 MEAN -&gt; x1: 0.000|x2: 0.014|x3: 0.416|x4: 0.018|x5: 0.042|x6: 0.059|x7: 0.044|x8: 0.000|x9: 0.017|x10: 0.022|x11: 0.067|x12: 0.134|x13: 0.145|x14: 0.116|x15: 0.088|x16: 0.034|x17: 0.000
 </t>
@@ -1769,8 +1769,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.138|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.144|x10: 0.000|x11: 0.138|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.142|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.074|x3: 0.079|x4: 0.219|x5: 0.195|x6: 0.000|x7: 0.144|x8: 0.000|x9: 0.246|x10: 0.000|x11: 0.071|x12: 0.145|x13: 0.090|x14: 0.214|x15: 0.056|x16: 0.286|x17: 0.000
 TOP2VEC -&gt; x1: 0.131|x2: 0.000|x3: 0.000|x4: 0.214|x5: 0.297|x6: 0.172|x7: 0.428|x8: 0.000|x9: 0.317|x10: 0.000|x11: 0.495|x12: 0.141|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.183|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.318|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.033|x2: 0.019|x3: 0.020|x4: 0.108|x5: 0.158|x6: 0.043|x7: 0.143|x8: 0.000|x9: 0.177|x10: 0.000|x11: 0.176|x12: 0.071|x13: 0.023|x14: 0.053|x15: 0.094|x16: 0.153|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.338|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.033|x2: 0.019|x3: 0.020|x4: 0.108|x5: 0.158|x6: 0.043|x7: 0.143|x8: 0.000|x9: 0.177|x10: 0.000|x11: 0.176|x12: 0.071|x13: 0.023|x14: 0.053|x15: 0.099|x16: 0.153|x17: 0.000
 </t>
         </is>
       </c>
@@ -1791,16 +1791,16 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.28:13, 0.24:15, 0.16:9</t>
+          <t>0.31:13, 0.24:15, 0.16:9</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.130|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.141|x14: 0.000|x15: 0.205|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.075|x3: 0.140|x4: 0.197|x5: 0.000|x6: 0.000|x7: 0.094|x8: 0.000|x9: 0.351|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.226|x14: 0.239|x15: 0.447|x16: 0.053|x17: 0.000
-TOP2VEC -&gt; x1: 0.183|x2: 0.000|x3: 0.174|x4: 0.000|x5: 0.000|x6: 0.320|x7: 0.436|x8: 0.000|x9: 0.149|x10: 0.000|x11: 0.159|x12: 0.143|x13: 0.359|x14: 0.235|x15: 0.291|x16: 0.000|x17: 0.000
-BERTOPIC -&gt; x1: 0.207|x2: 0.150|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.066|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.111|x12: 0.075|x13: 0.376|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.097|x2: 0.056|x3: 0.079|x4: 0.049|x5: 0.000|x6: 0.080|x7: 0.149|x8: 0.000|x9: 0.157|x10: 0.000|x11: 0.067|x12: 0.055|x13: 0.275|x14: 0.118|x15: 0.236|x16: 0.013|x17: 0.000
+TOP2VEC -&gt; x1: 0.183|x2: 0.000|x3: 0.174|x4: 0.000|x5: 0.000|x6: 0.320|x7: 0.436|x8: 0.000|x9: 0.149|x10: 0.000|x11: 0.159|x12: 0.143|x13: 0.359|x14: 0.235|x15: 0.290|x16: 0.000|x17: 0.000
+BERTOPIC -&gt; x1: 0.194|x2: 0.141|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.101|x12: 0.000|x13: 0.500|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.094|x2: 0.054|x3: 0.079|x4: 0.049|x5: 0.000|x6: 0.080|x7: 0.133|x8: 0.000|x9: 0.157|x10: 0.000|x11: 0.065|x12: 0.036|x13: 0.306|x14: 0.118|x15: 0.236|x16: 0.013|x17: 0.000
 </t>
         </is>
       </c>
@@ -1828,7 +1828,7 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.334|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.119|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.295|x3: 0.174|x4: 0.000|x5: 0.092|x6: 0.097|x7: 0.419|x8: 0.000|x9: 0.158|x10: 0.106|x11: 0.155|x12: 0.056|x13: 0.180|x14: 0.000|x15: 0.000|x16: 0.088|x17: 0.000
-TOP2VEC -&gt; x1: 0.000|x2: 0.106|x3: 0.201|x4: 0.251|x5: 0.070|x6: 0.000|x7: 0.392|x8: 0.000|x9: 0.122|x10: 0.000|x11: 0.069|x12: 0.345|x13: 0.073|x14: 0.167|x15: 0.000|x16: 0.190|x17: 0.000
+TOP2VEC -&gt; x1: 0.000|x2: 0.106|x3: 0.201|x4: 0.251|x5: 0.070|x6: 0.000|x7: 0.392|x8: 0.000|x9: 0.122|x10: 0.000|x11: 0.069|x12: 0.345|x13: 0.073|x14: 0.166|x15: 0.000|x16: 0.190|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.500|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 MEAN -&gt; x1: 0.000|x2: 0.100|x3: 0.302|x4: 0.063|x5: 0.040|x6: 0.024|x7: 0.203|x8: 0.000|x9: 0.100|x10: 0.027|x11: 0.056|x12: 0.100|x13: 0.063|x14: 0.042|x15: 0.000|x16: 0.069|x17: 0.000
 </t>
@@ -1888,7 +1888,7 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.096|x2: 0.000|x3: 0.301|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.238|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.140|x3: 0.094|x4: 0.236|x5: 0.000|x6: 0.000|x7: 0.125|x8: 0.443|x9: 0.468|x10: 0.108|x11: 0.108|x12: 0.000|x13: 0.097|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-TOP2VEC -&gt; x1: 0.196|x2: 0.000|x3: 0.149|x4: 0.117|x5: 0.108|x6: 0.162|x7: 0.190|x8: 0.088|x9: 0.000|x10: 0.000|x11: 0.086|x12: 0.143|x13: 0.000|x14: 0.077|x15: 0.000|x16: 0.151|x17: 0.000
+TOP2VEC -&gt; x1: 0.195|x2: 0.000|x3: 0.149|x4: 0.117|x5: 0.108|x6: 0.162|x7: 0.190|x8: 0.088|x9: 0.000|x10: 0.000|x11: 0.086|x12: 0.143|x13: 0.000|x14: 0.077|x15: 0.000|x16: 0.151|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.500|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 MEAN -&gt; x1: 0.073|x2: 0.035|x3: 0.261|x4: 0.088|x5: 0.027|x6: 0.040|x7: 0.079|x8: 0.192|x9: 0.117|x10: 0.027|x11: 0.049|x12: 0.036|x13: 0.024|x14: 0.019|x15: 0.000|x16: 0.038|x17: 0.000
 </t>
@@ -1918,7 +1918,7 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.348|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.147|x10: 0.000|x11: 0.063|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.123|x3: 0.109|x4: 0.362|x5: 0.093|x6: 0.000|x7: 0.124|x8: 0.113|x9: 0.169|x10: 0.101|x11: 0.000|x12: 0.133|x13: 0.173|x14: 0.000|x15: 0.123|x16: 0.198|x17: 0.000
-TOP2VEC -&gt; x1: 0.203|x2: 0.118|x3: 0.058|x4: 0.500|x5: 0.166|x6: 0.000|x7: 0.133|x8: 0.242|x9: 0.060|x10: 0.174|x11: 0.082|x12: 0.094|x13: 0.130|x14: 0.000|x15: 0.000|x16: 0.096|x17: 0.000
+TOP2VEC -&gt; x1: 0.203|x2: 0.118|x3: 0.058|x4: 0.500|x5: 0.166|x6: 0.000|x7: 0.133|x8: 0.242|x9: 0.060|x10: 0.174|x11: 0.082|x12: 0.094|x13: 0.131|x14: 0.000|x15: 0.000|x16: 0.096|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.500|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 MEAN -&gt; x1: 0.051|x2: 0.060|x3: 0.042|x4: 0.427|x5: 0.065|x6: 0.000|x7: 0.064|x8: 0.089|x9: 0.094|x10: 0.069|x11: 0.036|x12: 0.057|x13: 0.076|x14: 0.000|x15: 0.031|x16: 0.073|x17: 0.000
 </t>
@@ -1948,7 +1948,7 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.292|x2: 0.000|x3: 0.000|x4: 0.142|x5: 0.071|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.108|x10: 0.070|x11: 0.071|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.233|x2: 0.158|x3: 0.082|x4: 0.267|x5: 0.277|x6: 0.054|x7: 0.129|x8: 0.000|x9: 0.158|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.369|x15: 0.000|x16: 0.093|x17: 0.000
-TOP2VEC -&gt; x1: 0.000|x2: 0.105|x3: 0.362|x4: 0.250|x5: 0.142|x6: 0.228|x7: 0.206|x8: 0.000|x9: 0.272|x10: 0.171|x11: 0.070|x12: 0.068|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.139|x17: 0.000
+TOP2VEC -&gt; x1: 0.000|x2: 0.105|x3: 0.362|x4: 0.250|x5: 0.142|x6: 0.227|x7: 0.206|x8: 0.000|x9: 0.272|x10: 0.171|x11: 0.070|x12: 0.068|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.139|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 MEAN -&gt; x1: 0.131|x2: 0.066|x3: 0.111|x4: 0.165|x5: 0.122|x6: 0.070|x7: 0.084|x8: 0.000|x9: 0.134|x10: 0.060|x11: 0.035|x12: 0.017|x13: 0.000|x14: 0.092|x15: 0.000|x16: 0.058|x17: 0.000
 </t>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.49:4, 0.23:7</t>
+          <t>0.48:4, 0.23:7</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1979,8 +1979,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.500|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.067|x10: 0.000|x11: 0.056|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.217|x3: 0.000|x4: 0.500|x5: 0.000|x6: 0.000|x7: 0.412|x8: 0.000|x9: 0.209|x10: 0.000|x11: 0.058|x12: 0.123|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.180|x17: 0.000
 TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.500|x5: 0.137|x6: 0.072|x7: 0.500|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.171|x12: 0.354|x13: 0.241|x14: 0.190|x15: 0.000|x16: 0.092|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.473|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.000|x2: 0.054|x3: 0.000|x4: 0.493|x5: 0.034|x6: 0.018|x7: 0.228|x8: 0.000|x9: 0.069|x10: 0.000|x11: 0.071|x12: 0.119|x13: 0.060|x14: 0.047|x15: 0.000|x16: 0.068|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.416|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.000|x2: 0.054|x3: 0.000|x4: 0.479|x5: 0.034|x6: 0.018|x7: 0.228|x8: 0.000|x9: 0.069|x10: 0.000|x11: 0.071|x12: 0.119|x13: 0.060|x14: 0.047|x15: 0.000|x16: 0.068|x17: 0.000
 </t>
         </is>
       </c>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.34:4</t>
+          <t>0.33:4</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2009,8 +2009,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.314|x2: 0.000|x3: 0.149|x4: 0.280|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.075|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.159|x17: 0.000
 LDA -&gt; x1: 0.102|x2: 0.124|x3: 0.211|x4: 0.330|x5: 0.240|x6: 0.000|x7: 0.112|x8: 0.154|x9: 0.232|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.076|x14: 0.114|x15: 0.052|x16: 0.073|x17: 0.000
 TOP2VEC -&gt; x1: 0.000|x2: 0.135|x3: 0.061|x4: 0.287|x5: 0.092|x6: 0.186|x7: 0.282|x8: 0.071|x9: 0.198|x10: 0.147|x11: 0.118|x12: 0.183|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.155|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.452|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.104|x2: 0.065|x3: 0.105|x4: 0.337|x5: 0.083|x6: 0.047|x7: 0.099|x8: 0.056|x9: 0.108|x10: 0.056|x11: 0.030|x12: 0.046|x13: 0.019|x14: 0.029|x15: 0.013|x16: 0.097|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.422|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.104|x2: 0.065|x3: 0.105|x4: 0.330|x5: 0.083|x6: 0.047|x7: 0.099|x8: 0.056|x9: 0.108|x10: 0.055|x11: 0.030|x12: 0.046|x13: 0.019|x14: 0.029|x15: 0.013|x16: 0.097|x17: 0.000
 </t>
         </is>
       </c>
@@ -2039,8 +2039,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.290|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.089|x10: 0.000|x11: 0.085|x12: 0.093|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.194|x3: 0.197|x4: 0.283|x5: 0.000|x6: 0.083|x7: 0.102|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.181|x13: 0.051|x14: 0.291|x15: 0.164|x16: 0.274|x17: 0.000
 TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.169|x5: 0.000|x6: 0.180|x7: 0.383|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.339|x12: 0.405|x13: 0.355|x14: 0.157|x15: 0.187|x16: 0.154|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.385|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.000|x2: 0.049|x3: 0.049|x4: 0.281|x5: 0.000|x6: 0.066|x7: 0.121|x8: 0.000|x9: 0.022|x10: 0.000|x11: 0.106|x12: 0.170|x13: 0.102|x14: 0.112|x15: 0.088|x16: 0.107|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.398|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.000|x2: 0.049|x3: 0.049|x4: 0.285|x5: 0.000|x6: 0.066|x7: 0.121|x8: 0.000|x9: 0.022|x10: 0.000|x11: 0.106|x12: 0.170|x13: 0.102|x14: 0.112|x15: 0.088|x16: 0.107|x17: 0.000
 </t>
         </is>
       </c>
@@ -2068,7 +2068,7 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.354|x5: 0.089|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.068|x10: 0.000|x11: 0.065|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.430|x3: 0.000|x4: 0.500|x5: 0.180|x6: 0.208|x7: 0.057|x8: 0.000|x9: 0.208|x10: 0.093|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.056|x17: 0.000
-TOP2VEC -&gt; x1: 0.272|x2: 0.000|x3: 0.000|x4: 0.379|x5: 0.000|x6: 0.154|x7: 0.255|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.245|x12: 0.152|x13: 0.117|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+TOP2VEC -&gt; x1: 0.272|x2: 0.000|x3: 0.000|x4: 0.379|x5: 0.000|x6: 0.155|x7: 0.255|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.245|x12: 0.152|x13: 0.117|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.500|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 MEAN -&gt; x1: 0.068|x2: 0.108|x3: 0.000|x4: 0.433|x5: 0.067|x6: 0.091|x7: 0.078|x8: 0.000|x9: 0.069|x10: 0.023|x11: 0.078|x12: 0.038|x13: 0.029|x14: 0.000|x15: 0.000|x16: 0.014|x17: 0.000
 </t>
@@ -2129,8 +2129,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.069|x3: 0.000|x4: 0.000|x5: 0.097|x6: 0.000|x7: 0.000|x8: 0.094|x9: 0.085|x10: 0.130|x11: 0.081|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.156|x3: 0.000|x4: 0.199|x5: 0.244|x6: 0.000|x7: 0.000|x8: 0.267|x9: 0.000|x10: 0.434|x11: 0.000|x12: 0.166|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.354|x17: 0.000
 TOP2VEC -&gt; x1: 0.500|x2: 0.000|x3: 0.000|x4: 0.180|x5: 0.204|x6: 0.000|x7: 0.301|x8: 0.324|x9: 0.243|x10: 0.231|x11: 0.117|x12: 0.113|x13: 0.097|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-BERTOPIC -&gt; x1: 0.293|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.100|x9: 0.116|x10: 0.271|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.198|x2: 0.056|x3: 0.000|x4: 0.095|x5: 0.136|x6: 0.000|x7: 0.075|x8: 0.196|x9: 0.111|x10: 0.267|x11: 0.050|x12: 0.070|x13: 0.024|x14: 0.000|x15: 0.000|x16: 0.089|x17: 0.000
+BERTOPIC -&gt; x1: 0.295|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.099|x9: 0.118|x10: 0.268|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.199|x2: 0.056|x3: 0.000|x4: 0.095|x5: 0.136|x6: 0.000|x7: 0.075|x8: 0.196|x9: 0.111|x10: 0.266|x11: 0.050|x12: 0.070|x13: 0.024|x14: 0.000|x15: 0.000|x16: 0.089|x17: 0.000
 </t>
         </is>
       </c>
@@ -2188,7 +2188,7 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.090|x7: 0.000|x8: 0.000|x9: 0.109|x10: 0.000|x11: 0.122|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.139|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.101|x3: 0.097|x4: 0.237|x5: 0.075|x6: 0.000|x7: 0.104|x8: 0.150|x9: 0.389|x10: 0.000|x11: 0.000|x12: 0.203|x13: 0.155|x14: 0.000|x15: 0.000|x16: 0.308|x17: 0.000
-TOP2VEC -&gt; x1: 0.000|x2: 0.309|x3: 0.000|x4: 0.329|x5: 0.000|x6: 0.144|x7: 0.118|x8: 0.060|x9: 0.000|x10: 0.149|x11: 0.190|x12: 0.172|x13: 0.152|x14: 0.000|x15: 0.187|x16: 0.211|x17: 0.000
+TOP2VEC -&gt; x1: 0.000|x2: 0.309|x3: 0.000|x4: 0.329|x5: 0.000|x6: 0.144|x7: 0.118|x8: 0.060|x9: 0.000|x10: 0.149|x11: 0.190|x12: 0.172|x13: 0.152|x14: 0.000|x15: 0.187|x16: 0.210|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.500|x17: 0.000
 MEAN -&gt; x1: 0.000|x2: 0.102|x3: 0.024|x4: 0.142|x5: 0.019|x6: 0.059|x7: 0.055|x8: 0.052|x9: 0.125|x10: 0.037|x11: 0.078|x12: 0.094|x13: 0.077|x14: 0.000|x15: 0.047|x16: 0.289|x17: 0.000
 </t>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.19:3, 0.16:4, 0.13:13, 0.12:9</t>
+          <t>0.18:3, 0.16:4, 0.13:13, 0.12:9</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2219,8 +2219,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.079|x2: 0.000|x3: 0.079|x4: 0.100|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.125|x10: 0.000|x11: 0.148|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.071|x3: 0.177|x4: 0.216|x5: 0.218|x6: 0.000|x7: 0.000|x8: 0.140|x9: 0.124|x10: 0.000|x11: 0.000|x12: 0.078|x13: 0.218|x14: 0.276|x15: 0.128|x16: 0.175|x17: 0.000
 TOP2VEC -&gt; x1: 0.114|x2: 0.083|x3: 0.000|x4: 0.311|x5: 0.000|x6: 0.094|x7: 0.288|x8: 0.089|x9: 0.234|x10: 0.069|x11: 0.322|x12: 0.104|x13: 0.300|x14: 0.169|x15: 0.079|x16: 0.000|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.500|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.048|x2: 0.038|x3: 0.189|x4: 0.157|x5: 0.055|x6: 0.024|x7: 0.072|x8: 0.057|x9: 0.121|x10: 0.017|x11: 0.118|x12: 0.045|x13: 0.130|x14: 0.111|x15: 0.052|x16: 0.044|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.453|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.048|x2: 0.038|x3: 0.177|x4: 0.157|x5: 0.055|x6: 0.024|x7: 0.072|x8: 0.057|x9: 0.121|x10: 0.017|x11: 0.118|x12: 0.045|x13: 0.130|x14: 0.111|x15: 0.052|x16: 0.044|x17: 0.000
 </t>
         </is>
       </c>
@@ -2278,7 +2278,7 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.193|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.082|x13: 0.000|x14: 0.074|x15: 0.000|x16: 0.219|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.163|x3: 0.000|x4: 0.000|x5: 0.184|x6: 0.000|x7: 0.082|x8: 0.000|x9: 0.000|x10: 0.134|x11: 0.000|x12: 0.207|x13: 0.000|x14: 0.274|x15: 0.370|x16: 0.406|x17: 0.000
-TOP2VEC -&gt; x1: 0.089|x2: 0.000|x3: 0.000|x4: 0.151|x5: 0.128|x6: 0.083|x7: 0.245|x8: 0.272|x9: 0.086|x10: 0.000|x11: 0.000|x12: 0.257|x13: 0.109|x14: 0.288|x15: 0.356|x16: 0.123|x17: 0.000
+TOP2VEC -&gt; x1: 0.089|x2: 0.000|x3: 0.000|x4: 0.151|x5: 0.128|x6: 0.083|x7: 0.245|x8: 0.272|x9: 0.087|x10: 0.000|x11: 0.000|x12: 0.257|x13: 0.109|x14: 0.288|x15: 0.357|x16: 0.123|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.500|x17: 0.000
 MEAN -&gt; x1: 0.022|x2: 0.041|x3: 0.000|x4: 0.038|x5: 0.126|x6: 0.021|x7: 0.082|x8: 0.068|x9: 0.022|x10: 0.034|x11: 0.000|x12: 0.137|x13: 0.027|x14: 0.159|x15: 0.182|x16: 0.312|x17: 0.000
 </t>
@@ -2308,7 +2308,7 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.301|x6: 0.000|x7: 0.000|x8: 0.138|x9: 0.000|x10: 0.000|x11: 0.198|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.093|x3: 0.058|x4: 0.114|x5: 0.302|x6: 0.000|x7: 0.000|x8: 0.436|x9: 0.111|x10: 0.107|x11: 0.100|x12: 0.000|x13: 0.000|x14: 0.347|x15: 0.058|x16: 0.093|x17: 0.000
-TOP2VEC -&gt; x1: 0.105|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.359|x6: 0.081|x7: 0.191|x8: 0.201|x9: 0.255|x10: 0.078|x11: 0.500|x12: 0.225|x13: 0.000|x14: 0.198|x15: 0.000|x16: 0.000|x17: 0.000
+TOP2VEC -&gt; x1: 0.105|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.359|x6: 0.081|x7: 0.192|x8: 0.201|x9: 0.255|x10: 0.078|x11: 0.500|x12: 0.225|x13: 0.000|x14: 0.198|x15: 0.000|x16: 0.000|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.500|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 MEAN -&gt; x1: 0.026|x2: 0.023|x3: 0.014|x4: 0.029|x5: 0.366|x6: 0.020|x7: 0.048|x8: 0.194|x9: 0.092|x10: 0.046|x11: 0.199|x12: 0.056|x13: 0.000|x14: 0.136|x15: 0.014|x16: 0.023|x17: 0.000
 </t>
@@ -2338,7 +2338,7 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.106|x5: 0.500|x6: 0.000|x7: 0.000|x8: 0.093|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.126|x3: 0.147|x4: 0.145|x5: 0.227|x6: 0.054|x7: 0.000|x8: 0.334|x9: 0.065|x10: 0.131|x11: 0.000|x12: 0.083|x13: 0.226|x14: 0.000|x15: 0.086|x16: 0.196|x17: 0.000
-TOP2VEC -&gt; x1: 0.147|x2: 0.084|x3: 0.206|x4: 0.488|x5: 0.364|x6: 0.090|x7: 0.314|x8: 0.117|x9: 0.232|x10: 0.206|x11: 0.103|x12: 0.151|x13: 0.278|x14: 0.184|x15: 0.095|x16: 0.128|x17: 0.000
+TOP2VEC -&gt; x1: 0.147|x2: 0.084|x3: 0.206|x4: 0.488|x5: 0.364|x6: 0.090|x7: 0.314|x8: 0.116|x9: 0.232|x10: 0.206|x11: 0.103|x12: 0.151|x13: 0.278|x14: 0.184|x15: 0.095|x16: 0.128|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.500|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 MEAN -&gt; x1: 0.037|x2: 0.052|x3: 0.088|x4: 0.185|x5: 0.398|x6: 0.036|x7: 0.078|x8: 0.136|x9: 0.074|x10: 0.084|x11: 0.026|x12: 0.059|x13: 0.126|x14: 0.046|x15: 0.045|x16: 0.081|x17: 0.000
 </t>
@@ -2361,16 +2361,16 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.34:5, 0.23:16, 0.12:7, 0.12:4</t>
+          <t>0.34:5, 0.29:16, 0.12:7, 0.12:4</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.469|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.085|x10: 0.000|x11: 0.070|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.366|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.113|x3: 0.000|x4: 0.332|x5: 0.381|x6: 0.000|x7: 0.148|x8: 0.113|x9: 0.216|x10: 0.000|x11: 0.068|x12: 0.000|x13: 0.000|x14: 0.176|x15: 0.099|x16: 0.175|x17: 0.000
-TOP2VEC -&gt; x1: 0.000|x2: 0.111|x3: 0.000|x4: 0.165|x5: 0.257|x6: 0.433|x7: 0.352|x8: 0.000|x9: 0.000|x10: 0.093|x11: 0.093|x12: 0.090|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.220|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.245|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.162|x17: 0.000
-MEAN -&gt; x1: 0.000|x2: 0.056|x3: 0.000|x4: 0.124|x5: 0.338|x6: 0.108|x7: 0.125|x8: 0.028|x9: 0.075|x10: 0.023|x11: 0.058|x12: 0.023|x13: 0.000|x14: 0.044|x15: 0.025|x16: 0.231|x17: 0.000
+TOP2VEC -&gt; x1: 0.000|x2: 0.111|x3: 0.000|x4: 0.165|x5: 0.257|x6: 0.434|x7: 0.352|x8: 0.000|x9: 0.000|x10: 0.093|x11: 0.093|x12: 0.090|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.220|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.240|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.383|x17: 0.000
+MEAN -&gt; x1: 0.000|x2: 0.056|x3: 0.000|x4: 0.124|x5: 0.337|x6: 0.108|x7: 0.125|x8: 0.028|x9: 0.075|x10: 0.023|x11: 0.058|x12: 0.023|x13: 0.000|x14: 0.044|x15: 0.025|x16: 0.286|x17: 0.000
 </t>
         </is>
       </c>
@@ -2398,9 +2398,9 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.179|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.184|x10: 0.084|x11: 0.119|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.248|x3: 0.236|x4: 0.065|x5: 0.064|x6: 0.000|x7: 0.147|x8: 0.000|x9: 0.152|x10: 0.288|x11: 0.000|x12: 0.193|x13: 0.000|x14: 0.125|x15: 0.000|x16: 0.302|x17: 0.000
-TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.257|x5: 0.201|x6: 0.000|x7: 0.442|x8: 0.000|x9: 0.231|x10: 0.000|x11: 0.367|x12: 0.169|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.500|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.000|x2: 0.062|x3: 0.104|x4: 0.080|x5: 0.066|x6: 0.000|x7: 0.147|x8: 0.000|x9: 0.267|x10: 0.093|x11: 0.122|x12: 0.091|x13: 0.000|x14: 0.031|x15: 0.000|x16: 0.076|x17: 0.000
+TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.257|x5: 0.202|x6: 0.000|x7: 0.442|x8: 0.000|x9: 0.231|x10: 0.000|x11: 0.367|x12: 0.169|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.091|x9: 0.500|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.000|x2: 0.062|x3: 0.104|x4: 0.080|x5: 0.066|x6: 0.000|x7: 0.147|x8: 0.023|x9: 0.267|x10: 0.093|x11: 0.122|x12: 0.091|x13: 0.000|x14: 0.031|x15: 0.000|x16: 0.076|x17: 0.000
 </t>
         </is>
       </c>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.17:4, 0.16:1, 0.15:16, 0.13:5</t>
+          <t>0.17:4, 0.15:16, 0.13:5, 0.12:1</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2429,8 +2429,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.082|x2: 0.060|x3: 0.245|x4: 0.103|x5: 0.133|x6: 0.087|x7: 0.000|x8: 0.000|x9: 0.090|x10: 0.103|x11: 0.086|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.113|x17: 0.000
 LDA -&gt; x1: 0.164|x2: 0.199|x3: 0.113|x4: 0.355|x5: 0.145|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.074|x10: 0.000|x11: 0.144|x12: 0.165|x13: 0.000|x14: 0.153|x15: 0.000|x16: 0.308|x17: 0.000
 TOP2VEC -&gt; x1: 0.124|x2: 0.065|x3: 0.064|x4: 0.240|x5: 0.229|x6: 0.065|x7: 0.207|x8: 0.154|x9: 0.074|x10: 0.000|x11: 0.217|x12: 0.099|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.173|x17: 0.000
-BERTOPIC -&gt; x1: 0.254|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.259|x9: 0.000|x10: 0.209|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.156|x2: 0.081|x3: 0.106|x4: 0.175|x5: 0.127|x6: 0.038|x7: 0.052|x8: 0.103|x9: 0.060|x10: 0.078|x11: 0.112|x12: 0.066|x13: 0.000|x14: 0.038|x15: 0.000|x16: 0.148|x17: 0.000
+BERTOPIC -&gt; x1: 0.117|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.077|x9: 0.000|x10: 0.102|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.122|x2: 0.081|x3: 0.106|x4: 0.175|x5: 0.127|x6: 0.038|x7: 0.052|x8: 0.058|x9: 0.060|x10: 0.051|x11: 0.112|x12: 0.066|x13: 0.000|x14: 0.038|x15: 0.000|x16: 0.148|x17: 0.000
 </t>
         </is>
       </c>
@@ -2549,8 +2549,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.076|x4: 0.000|x5: 0.000|x6: 0.073|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.113|x12: 0.104|x13: 0.076|x14: 0.075|x15: 0.205|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.071|x3: 0.155|x4: 0.111|x5: 0.116|x6: 0.055|x7: 0.248|x8: 0.112|x9: 0.128|x10: 0.000|x11: 0.141|x12: 0.000|x13: 0.169|x14: 0.125|x15: 0.387|x16: 0.000|x17: 0.000
 TOP2VEC -&gt; x1: 0.076|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.500|x8: 0.058|x9: 0.196|x10: 0.000|x11: 0.264|x12: 0.193|x13: 0.276|x14: 0.129|x15: 0.137|x16: 0.000|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.146|x12: 0.000|x13: 0.231|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.019|x2: 0.018|x3: 0.058|x4: 0.028|x5: 0.029|x6: 0.032|x7: 0.187|x8: 0.042|x9: 0.081|x10: 0.000|x11: 0.166|x12: 0.074|x13: 0.188|x14: 0.082|x15: 0.183|x16: 0.000|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.142|x12: 0.000|x13: 0.235|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.019|x2: 0.018|x3: 0.058|x4: 0.028|x5: 0.029|x6: 0.032|x7: 0.187|x8: 0.042|x9: 0.081|x10: 0.000|x11: 0.165|x12: 0.074|x13: 0.189|x14: 0.082|x15: 0.183|x16: 0.000|x17: 0.000
 </t>
         </is>
       </c>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.21:12, 0.18:16, 0.15:7, 0.13:4</t>
+          <t>0.18:16, 0.14:12, 0.13:4</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2609,8 +2609,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.287|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.080|x3: 0.000|x4: 0.326|x5: 0.000|x6: 0.079|x7: 0.126|x8: 0.000|x9: 0.084|x10: 0.000|x11: 0.000|x12: 0.338|x13: 0.000|x14: 0.223|x15: 0.074|x16: 0.491|x17: 0.000
 TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.179|x5: 0.176|x6: 0.058|x7: 0.281|x8: 0.000|x9: 0.000|x10: 0.170|x11: 0.118|x12: 0.209|x13: 0.053|x14: 0.000|x15: 0.000|x16: 0.244|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.202|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.275|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.000|x2: 0.020|x3: 0.000|x4: 0.126|x5: 0.116|x6: 0.034|x7: 0.152|x8: 0.000|x9: 0.021|x10: 0.043|x11: 0.030|x12: 0.206|x13: 0.013|x14: 0.056|x15: 0.019|x16: 0.184|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.000|x2: 0.020|x3: 0.000|x4: 0.126|x5: 0.116|x6: 0.034|x7: 0.102|x8: 0.000|x9: 0.021|x10: 0.043|x11: 0.030|x12: 0.137|x13: 0.013|x14: 0.056|x15: 0.019|x16: 0.184|x17: 0.000
 </t>
         </is>
       </c>
@@ -2631,16 +2631,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.32:9, 0.20:4, 0.17:8, 0.14:10</t>
+          <t>0.33:9, 0.20:4, 0.14:8, 0.14:10</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.082|x2: 0.000|x3: 0.110|x4: 0.085|x5: 0.000|x6: 0.000|x7: 0.094|x8: 0.116|x9: 0.218|x10: 0.081|x11: 0.062|x12: 0.000|x13: 0.000|x14: 0.084|x15: 0.000|x16: 0.069|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.179|x3: 0.051|x4: 0.218|x5: 0.000|x6: 0.000|x7: 0.073|x8: 0.195|x9: 0.272|x10: 0.237|x11: 0.000|x12: 0.130|x13: 0.079|x14: 0.163|x15: 0.000|x16: 0.222|x17: 0.000
-TOP2VEC -&gt; x1: 0.301|x2: 0.134|x3: 0.000|x4: 0.500|x5: 0.116|x6: 0.000|x7: 0.159|x8: 0.256|x9: 0.340|x10: 0.223|x11: 0.140|x12: 0.074|x13: 0.143|x14: 0.115|x15: 0.078|x16: 0.000|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.131|x9: 0.454|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.096|x2: 0.078|x3: 0.040|x4: 0.201|x5: 0.029|x6: 0.000|x7: 0.081|x8: 0.175|x9: 0.321|x10: 0.135|x11: 0.051|x12: 0.051|x13: 0.056|x14: 0.091|x15: 0.019|x16: 0.073|x17: 0.000
+TOP2VEC -&gt; x1: 0.301|x2: 0.134|x3: 0.000|x4: 0.500|x5: 0.116|x6: 0.000|x7: 0.160|x8: 0.257|x9: 0.340|x10: 0.223|x11: 0.140|x12: 0.074|x13: 0.143|x14: 0.115|x15: 0.078|x16: 0.000|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.500|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.096|x2: 0.078|x3: 0.040|x4: 0.201|x5: 0.029|x6: 0.000|x7: 0.081|x8: 0.142|x9: 0.332|x10: 0.135|x11: 0.051|x12: 0.051|x13: 0.056|x14: 0.091|x15: 0.019|x16: 0.073|x17: 0.000
 </t>
         </is>
       </c>
@@ -2661,16 +2661,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0.39:8, 0.15:10</t>
+          <t>0.40:8, 0.14:10</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.092|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.488|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.000|x3: 0.201|x4: 0.117|x5: 0.000|x6: 0.000|x7: 0.129|x8: 0.245|x9: 0.167|x10: 0.216|x11: 0.000|x12: 0.146|x13: 0.000|x14: 0.262|x15: 0.153|x16: 0.183|x17: 0.000
-TOP2VEC -&gt; x1: 0.000|x2: 0.054|x3: 0.000|x4: 0.189|x5: 0.069|x6: 0.000|x7: 0.173|x8: 0.356|x9: 0.000|x10: 0.225|x11: 0.096|x12: 0.238|x13: 0.000|x14: 0.097|x15: 0.245|x16: 0.277|x17: 0.000
-BERTOPIC -&gt; x1: 0.147|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.466|x9: 0.000|x10: 0.150|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.037|x2: 0.036|x3: 0.050|x4: 0.076|x5: 0.017|x6: 0.000|x7: 0.075|x8: 0.389|x9: 0.042|x10: 0.148|x11: 0.024|x12: 0.096|x13: 0.000|x14: 0.090|x15: 0.100|x16: 0.115|x17: 0.000
+TOP2VEC -&gt; x1: 0.000|x2: 0.054|x3: 0.000|x4: 0.189|x5: 0.069|x6: 0.000|x7: 0.173|x8: 0.356|x9: 0.000|x10: 0.225|x11: 0.096|x12: 0.239|x13: 0.000|x14: 0.097|x15: 0.245|x16: 0.277|x17: 0.000
+BERTOPIC -&gt; x1: 0.100|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.500|x9: 0.000|x10: 0.101|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.025|x2: 0.036|x3: 0.050|x4: 0.076|x5: 0.017|x6: 0.000|x7: 0.075|x8: 0.397|x9: 0.042|x10: 0.136|x11: 0.024|x12: 0.096|x13: 0.000|x14: 0.090|x15: 0.100|x16: 0.115|x17: 0.000
 </t>
         </is>
       </c>
@@ -2721,16 +2721,16 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.46:8, 0.17:4, 0.15:10, 0.15:3, 0.13:7</t>
+          <t>0.46:8, 0.17:4, 0.16:10, 0.15:3, 0.13:7</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.183|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.500|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.122|x3: 0.327|x4: 0.237|x5: 0.000|x6: 0.000|x7: 0.182|x8: 0.491|x9: 0.000|x10: 0.268|x11: 0.000|x12: 0.000|x13: 0.119|x14: 0.000|x15: 0.000|x16: 0.075|x17: 0.000
-TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.266|x4: 0.253|x5: 0.296|x6: 0.120|x7: 0.336|x8: 0.351|x9: 0.000|x10: 0.205|x11: 0.185|x12: 0.131|x13: 0.320|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-BERTOPIC -&gt; x1: 0.135|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.500|x9: 0.000|x10: 0.140|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.034|x2: 0.031|x3: 0.148|x4: 0.168|x5: 0.074|x6: 0.030|x7: 0.129|x8: 0.461|x9: 0.000|x10: 0.153|x11: 0.046|x12: 0.033|x13: 0.110|x14: 0.000|x15: 0.000|x16: 0.019|x17: 0.000
+TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.266|x4: 0.253|x5: 0.296|x6: 0.119|x7: 0.336|x8: 0.351|x9: 0.000|x10: 0.205|x11: 0.185|x12: 0.131|x13: 0.320|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+BERTOPIC -&gt; x1: 0.145|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.500|x9: 0.000|x10: 0.148|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.036|x2: 0.031|x3: 0.148|x4: 0.168|x5: 0.074|x6: 0.030|x7: 0.129|x8: 0.461|x9: 0.000|x10: 0.155|x11: 0.046|x12: 0.033|x13: 0.110|x14: 0.000|x15: 0.000|x16: 0.019|x17: 0.000
 </t>
         </is>
       </c>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0.23:10, 0.19:14</t>
+          <t>0.19:14, 0.16:10</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2759,8 +2759,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.176|x10: 0.000|x11: 0.156|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.058|x3: 0.215|x4: 0.000|x5: 0.190|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.111|x10: 0.248|x11: 0.000|x12: 0.068|x13: 0.345|x14: 0.413|x15: 0.000|x16: 0.172|x17: 0.000
 TOP2VEC -&gt; x1: 0.000|x2: 0.068|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.087|x7: 0.246|x8: 0.000|x9: 0.165|x10: 0.272|x11: 0.132|x12: 0.127|x13: 0.000|x14: 0.366|x15: 0.000|x16: 0.000|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.385|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.000|x2: 0.031|x3: 0.054|x4: 0.000|x5: 0.048|x6: 0.022|x7: 0.061|x8: 0.000|x9: 0.113|x10: 0.226|x11: 0.072|x12: 0.049|x13: 0.086|x14: 0.195|x15: 0.000|x16: 0.043|x17: 0.000
+BERTOPIC -&gt; x1: 0.065|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.129|x9: 0.000|x10: 0.127|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.016|x2: 0.031|x3: 0.054|x4: 0.000|x5: 0.048|x6: 0.022|x7: 0.061|x8: 0.032|x9: 0.113|x10: 0.162|x11: 0.072|x12: 0.049|x13: 0.086|x14: 0.195|x15: 0.000|x16: 0.043|x17: 0.000
 </t>
         </is>
       </c>
@@ -2811,16 +2811,16 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.44:7, 0.18:9, 0.17:11</t>
+          <t>0.42:7, 0.18:9, 0.17:11</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.338|x8: 0.342|x9: 0.145|x10: 0.000|x11: 0.093|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.103|x2: 0.223|x3: 0.136|x4: 0.099|x5: 0.000|x6: 0.126|x7: 0.437|x8: 0.000|x9: 0.354|x10: 0.000|x11: 0.141|x12: 0.056|x13: 0.083|x14: 0.000|x15: 0.000|x16: 0.061|x17: 0.000
-TOP2VEC -&gt; x1: 0.140|x2: 0.000|x3: 0.000|x4: 0.168|x5: 0.099|x6: 0.000|x7: 0.480|x8: 0.000|x9: 0.240|x10: 0.074|x11: 0.458|x12: 0.164|x13: 0.413|x14: 0.052|x15: 0.000|x16: 0.000|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.500|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.061|x2: 0.056|x3: 0.034|x4: 0.067|x5: 0.025|x6: 0.032|x7: 0.439|x8: 0.086|x9: 0.185|x10: 0.019|x11: 0.173|x12: 0.055|x13: 0.124|x14: 0.013|x15: 0.000|x16: 0.015|x17: 0.000
+TOP2VEC -&gt; x1: 0.140|x2: 0.000|x3: 0.000|x4: 0.168|x5: 0.099|x6: 0.000|x7: 0.480|x8: 0.000|x9: 0.240|x10: 0.074|x11: 0.458|x12: 0.165|x13: 0.414|x14: 0.052|x15: 0.000|x16: 0.000|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.408|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.119|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.061|x2: 0.056|x3: 0.034|x4: 0.067|x5: 0.025|x6: 0.032|x7: 0.416|x8: 0.086|x9: 0.185|x10: 0.019|x11: 0.173|x12: 0.085|x13: 0.124|x14: 0.013|x15: 0.000|x16: 0.015|x17: 0.000
 </t>
         </is>
       </c>
@@ -2909,8 +2909,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.073|x7: 0.000|x8: 0.000|x9: 0.071|x10: 0.000|x11: 0.068|x12: 0.179|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.154|x3: 0.262|x4: 0.410|x5: 0.000|x6: 0.000|x7: 0.091|x8: 0.000|x9: 0.339|x10: 0.000|x11: 0.000|x12: 0.080|x13: 0.000|x14: 0.348|x15: 0.000|x16: 0.136|x17: 0.000
 TOP2VEC -&gt; x1: 0.000|x2: 0.223|x3: 0.000|x4: 0.127|x5: 0.000|x6: 0.082|x7: 0.225|x8: 0.000|x9: 0.185|x10: 0.075|x11: 0.106|x12: 0.116|x13: 0.222|x14: 0.258|x15: 0.000|x16: 0.146|x17: 0.000
-BERTOPIC -&gt; x1: 0.120|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.293|x12: 0.000|x13: 0.181|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.030|x2: 0.094|x3: 0.065|x4: 0.134|x5: 0.000|x6: 0.039|x7: 0.079|x8: 0.000|x9: 0.149|x10: 0.019|x11: 0.117|x12: 0.094|x13: 0.101|x14: 0.152|x15: 0.000|x16: 0.070|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.193|x12: 0.000|x13: 0.202|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.000|x2: 0.094|x3: 0.065|x4: 0.134|x5: 0.000|x6: 0.039|x7: 0.079|x8: 0.000|x9: 0.149|x10: 0.019|x11: 0.092|x12: 0.094|x13: 0.106|x14: 0.152|x15: 0.000|x16: 0.070|x17: 0.000
 </t>
         </is>
       </c>
@@ -2931,16 +2931,16 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0.31:9, 0.17:14, 0.16:8, 0.13:11</t>
+          <t>0.31:9, 0.17:14, 0.14:8, 0.13:11</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.085|x2: 0.000|x3: 0.071|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.268|x9: 0.183|x10: 0.000|x11: 0.103|x12: 0.000|x13: 0.064|x14: 0.099|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.000|x3: 0.062|x4: 0.059|x5: 0.117|x6: 0.000|x7: 0.066|x8: 0.287|x9: 0.248|x10: 0.153|x11: 0.000|x12: 0.108|x13: 0.099|x14: 0.403|x15: 0.000|x16: 0.218|x17: 0.000
-TOP2VEC -&gt; x1: 0.134|x2: 0.068|x3: 0.000|x4: 0.215|x5: 0.000|x6: 0.000|x7: 0.410|x8: 0.000|x9: 0.318|x10: 0.088|x11: 0.432|x12: 0.131|x13: 0.000|x14: 0.167|x15: 0.000|x16: 0.000|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.098|x9: 0.500|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.055|x2: 0.017|x3: 0.033|x4: 0.068|x5: 0.029|x6: 0.000|x7: 0.119|x8: 0.163|x9: 0.312|x10: 0.060|x11: 0.134|x12: 0.060|x13: 0.041|x14: 0.167|x15: 0.000|x16: 0.055|x17: 0.000
+TOP2VEC -&gt; x1: 0.135|x2: 0.068|x3: 0.000|x4: 0.215|x5: 0.000|x6: 0.000|x7: 0.410|x8: 0.000|x9: 0.318|x10: 0.088|x11: 0.433|x12: 0.131|x13: 0.000|x14: 0.167|x15: 0.000|x16: 0.000|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.479|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.055|x2: 0.017|x3: 0.033|x4: 0.068|x5: 0.029|x6: 0.000|x7: 0.119|x8: 0.139|x9: 0.307|x10: 0.060|x11: 0.134|x12: 0.060|x13: 0.041|x14: 0.167|x15: 0.000|x16: 0.055|x17: 0.000
 </t>
         </is>
       </c>
@@ -2968,7 +2968,7 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.141|x3: 0.000|x4: 0.072|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.155|x9: 0.094|x10: 0.000|x11: 0.090|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.070|x17: 0.000
 LDA -&gt; x1: 0.135|x2: 0.253|x3: 0.118|x4: 0.220|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.427|x9: 0.000|x10: 0.386|x11: 0.000|x12: 0.000|x13: 0.193|x14: 0.087|x15: 0.000|x16: 0.000|x17: 0.000
-TOP2VEC -&gt; x1: 0.341|x2: 0.070|x3: 0.217|x4: 0.329|x5: 0.209|x6: 0.000|x7: 0.147|x8: 0.229|x9: 0.000|x10: 0.445|x11: 0.091|x12: 0.088|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.333|x17: 0.000
+TOP2VEC -&gt; x1: 0.342|x2: 0.070|x3: 0.217|x4: 0.329|x5: 0.210|x6: 0.000|x7: 0.147|x8: 0.229|x9: 0.000|x10: 0.445|x11: 0.091|x12: 0.088|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.333|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.500|x17: 0.000
 MEAN -&gt; x1: 0.119|x2: 0.116|x3: 0.084|x4: 0.155|x5: 0.052|x6: 0.000|x7: 0.037|x8: 0.203|x9: 0.024|x10: 0.208|x11: 0.045|x12: 0.022|x13: 0.048|x14: 0.022|x15: 0.000|x16: 0.226|x17: 0.000
 </t>
@@ -3081,16 +3081,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0.18:13, 0.17:10, 0.16:16</t>
+          <t>0.19:13, 0.17:10, 0.16:16, 0.13:2</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.132|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.124|x9: 0.000|x10: 0.000|x11: 0.123|x12: 0.000|x13: 0.153|x14: 0.000|x15: 0.000|x16: 0.166|x17: 0.000
 LDA -&gt; x1: 0.064|x2: 0.156|x3: 0.000|x4: 0.136|x5: 0.192|x6: 0.000|x7: 0.093|x8: 0.161|x9: 0.145|x10: 0.243|x11: 0.099|x12: 0.139|x13: 0.000|x14: 0.122|x15: 0.000|x16: 0.269|x17: 0.000
-TOP2VEC -&gt; x1: 0.000|x2: 0.122|x3: 0.000|x4: 0.154|x5: 0.161|x6: 0.081|x7: 0.303|x8: 0.122|x9: 0.126|x10: 0.449|x11: 0.085|x12: 0.122|x13: 0.189|x14: 0.000|x15: 0.000|x16: 0.195|x17: 0.000
-BERTOPIC -&gt; x1: 0.177|x2: 0.125|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.359|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.060|x2: 0.101|x3: 0.000|x4: 0.106|x5: 0.088|x6: 0.020|x7: 0.099|x8: 0.102|x9: 0.068|x10: 0.173|x11: 0.077|x12: 0.065|x13: 0.175|x14: 0.030|x15: 0.000|x16: 0.157|x17: 0.000
+TOP2VEC -&gt; x1: 0.000|x2: 0.123|x3: 0.000|x4: 0.154|x5: 0.161|x6: 0.081|x7: 0.303|x8: 0.122|x9: 0.126|x10: 0.449|x11: 0.085|x12: 0.122|x13: 0.189|x14: 0.000|x15: 0.000|x16: 0.195|x17: 0.000
+BERTOPIC -&gt; x1: 0.360|x2: 0.255|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.408|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.106|x2: 0.133|x3: 0.000|x4: 0.106|x5: 0.088|x6: 0.020|x7: 0.099|x8: 0.102|x9: 0.068|x10: 0.173|x11: 0.077|x12: 0.065|x13: 0.188|x14: 0.030|x15: 0.000|x16: 0.157|x17: 0.000
 </t>
         </is>
       </c>
@@ -3111,16 +3111,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0.27:11, 0.23:7, 0.22:13</t>
+          <t>0.34:11, 0.23:7, 0.21:13</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.367|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.085|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.087|x2: 0.221|x3: 0.172|x4: 0.160|x5: 0.159|x6: 0.000|x7: 0.424|x8: 0.057|x9: 0.112|x10: 0.090|x11: 0.083|x12: 0.000|x13: 0.204|x14: 0.000|x15: 0.000|x16: 0.051|x17: 0.000
-TOP2VEC -&gt; x1: 0.000|x2: 0.142|x3: 0.000|x4: 0.000|x5: 0.093|x6: 0.000|x7: 0.500|x8: 0.000|x9: 0.261|x10: 0.223|x11: 0.400|x12: 0.359|x13: 0.500|x14: 0.186|x15: 0.088|x16: 0.000|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.227|x12: 0.000|x13: 0.168|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.022|x2: 0.091|x3: 0.043|x4: 0.040|x5: 0.063|x6: 0.000|x7: 0.231|x8: 0.014|x9: 0.093|x10: 0.078|x11: 0.269|x12: 0.090|x13: 0.218|x14: 0.046|x15: 0.043|x16: 0.013|x17: 0.000
+TOP2VEC -&gt; x1: 0.000|x2: 0.142|x3: 0.000|x4: 0.000|x5: 0.093|x6: 0.000|x7: 0.500|x8: 0.000|x9: 0.260|x10: 0.223|x11: 0.400|x12: 0.359|x13: 0.500|x14: 0.186|x15: 0.088|x16: 0.000|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.500|x12: 0.000|x13: 0.118|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.022|x2: 0.091|x3: 0.043|x4: 0.040|x5: 0.063|x6: 0.000|x7: 0.231|x8: 0.014|x9: 0.093|x10: 0.078|x11: 0.337|x12: 0.090|x13: 0.206|x14: 0.046|x15: 0.043|x16: 0.013|x17: 0.000
 </t>
         </is>
       </c>
@@ -3171,16 +3171,16 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0.25:8, 0.22:16, 0.19:12, 0.16:9, 0.14:14, 0.13:10</t>
+          <t>0.25:8, 0.22:16, 0.19:12, 0.16:9, 0.15:10, 0.14:14</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.181|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.218|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.135|x3: 0.000|x4: 0.097|x5: 0.000|x6: 0.000|x7: 0.063|x8: 0.335|x9: 0.232|x10: 0.146|x11: 0.066|x12: 0.108|x13: 0.000|x14: 0.455|x15: 0.000|x16: 0.183|x17: 0.000
-TOP2VEC -&gt; x1: 0.341|x2: 0.312|x3: 0.000|x4: 0.138|x5: 0.103|x6: 0.180|x7: 0.403|x8: 0.487|x9: 0.406|x10: 0.365|x11: 0.197|x12: 0.438|x13: 0.101|x14: 0.106|x15: 0.000|x16: 0.194|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.105|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.500|x17: 0.000
-MEAN -&gt; x1: 0.085|x2: 0.112|x3: 0.000|x4: 0.059|x5: 0.052|x6: 0.045|x7: 0.117|x8: 0.251|x9: 0.159|x10: 0.128|x11: 0.066|x12: 0.191|x13: 0.025|x14: 0.140|x15: 0.000|x16: 0.219|x17: 0.000
+TOP2VEC -&gt; x1: 0.341|x2: 0.312|x3: 0.000|x4: 0.138|x5: 0.103|x6: 0.180|x7: 0.403|x8: 0.487|x9: 0.406|x10: 0.365|x11: 0.197|x12: 0.438|x13: 0.102|x14: 0.106|x15: 0.000|x16: 0.194|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.130|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.103|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.500|x17: 0.000
+MEAN -&gt; x1: 0.085|x2: 0.112|x3: 0.000|x4: 0.059|x5: 0.058|x6: 0.045|x7: 0.116|x8: 0.251|x9: 0.159|x10: 0.153|x11: 0.066|x12: 0.191|x13: 0.025|x14: 0.140|x15: 0.000|x16: 0.219|x17: 0.000
 </t>
         </is>
       </c>
@@ -3208,9 +3208,9 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.119|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.189|x10: 0.000|x11: 0.088|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.135|x3: 0.063|x4: 0.311|x5: 0.093|x6: 0.403|x7: 0.106|x8: 0.000|x9: 0.395|x10: 0.126|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.128|x16: 0.062|x17: 0.000
-TOP2VEC -&gt; x1: 0.000|x2: 0.391|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.233|x8: 0.000|x9: 0.273|x10: 0.319|x11: 0.143|x12: 0.324|x13: 0.451|x14: 0.197|x15: 0.000|x16: 0.000|x17: 0.000
-BERTOPIC -&gt; x1: 0.182|x2: 0.130|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.348|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.046|x2: 0.194|x3: 0.016|x4: 0.078|x5: 0.023|x6: 0.101|x7: 0.085|x8: 0.000|x9: 0.214|x10: 0.111|x11: 0.058|x12: 0.081|x13: 0.200|x14: 0.049|x15: 0.032|x16: 0.015|x17: 0.000
+TOP2VEC -&gt; x1: 0.000|x2: 0.391|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.233|x8: 0.000|x9: 0.273|x10: 0.319|x11: 0.143|x12: 0.324|x13: 0.451|x14: 0.196|x15: 0.000|x16: 0.000|x17: 0.000
+BERTOPIC -&gt; x1: 0.181|x2: 0.129|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.338|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.045|x2: 0.193|x3: 0.016|x4: 0.078|x5: 0.023|x6: 0.101|x7: 0.085|x8: 0.000|x9: 0.214|x10: 0.111|x11: 0.058|x12: 0.081|x13: 0.197|x14: 0.049|x15: 0.032|x16: 0.015|x17: 0.000
 </t>
         </is>
       </c>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.24:9, 0.24:11, 0.23:14, 0.19:7, 0.15:13</t>
+          <t>0.24:9, 0.23:14, 0.20:11, 0.19:7, 0.16:13</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3269,8 +3269,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.167|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.260|x8: 0.000|x9: 0.185|x10: 0.000|x11: 0.131|x12: 0.000|x13: 0.000|x14: 0.072|x15: 0.088|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.000|x3: 0.174|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.124|x8: 0.072|x9: 0.467|x10: 0.000|x11: 0.145|x12: 0.099|x13: 0.202|x14: 0.368|x15: 0.000|x16: 0.168|x17: 0.000
 TOP2VEC -&gt; x1: 0.185|x2: 0.266|x3: 0.113|x4: 0.000|x5: 0.000|x6: 0.116|x7: 0.378|x8: 0.000|x9: 0.322|x10: 0.065|x11: 0.194|x12: 0.387|x13: 0.247|x14: 0.480|x15: 0.000|x16: 0.000|x17: 0.000
-BERTOPIC -&gt; x1: 0.085|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.500|x12: 0.000|x13: 0.131|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.068|x2: 0.066|x3: 0.114|x4: 0.000|x5: 0.000|x6: 0.029|x7: 0.191|x8: 0.018|x9: 0.244|x10: 0.016|x11: 0.243|x12: 0.121|x13: 0.145|x14: 0.230|x15: 0.022|x16: 0.042|x17: 0.000
+BERTOPIC -&gt; x1: 0.105|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.343|x12: 0.000|x13: 0.178|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.073|x2: 0.067|x3: 0.114|x4: 0.000|x5: 0.000|x6: 0.029|x7: 0.191|x8: 0.018|x9: 0.244|x10: 0.016|x11: 0.203|x12: 0.121|x13: 0.157|x14: 0.230|x15: 0.022|x16: 0.042|x17: 0.000
 </t>
         </is>
       </c>
@@ -3298,7 +3298,7 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.089|x4: 0.000|x5: 0.000|x6: 0.500|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.069|x12: 0.000|x13: 0.000|x14: 0.226|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.157|x3: 0.000|x4: 0.127|x5: 0.237|x6: 0.133|x7: 0.000|x8: 0.158|x9: 0.093|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.500|x15: 0.133|x16: 0.110|x17: 0.000
-TOP2VEC -&gt; x1: 0.068|x2: 0.247|x3: 0.062|x4: 0.157|x5: 0.105|x6: 0.000|x7: 0.162|x8: 0.000|x9: 0.128|x10: 0.210|x11: 0.197|x12: 0.240|x13: 0.000|x14: 0.277|x15: 0.000|x16: 0.080|x17: 0.000
+TOP2VEC -&gt; x1: 0.069|x2: 0.247|x3: 0.062|x4: 0.157|x5: 0.105|x6: 0.000|x7: 0.162|x8: 0.000|x9: 0.128|x10: 0.210|x11: 0.197|x12: 0.240|x13: 0.000|x14: 0.278|x15: 0.000|x16: 0.080|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.500|x15: 0.000|x16: 0.000|x17: 0.000
 MEAN -&gt; x1: 0.017|x2: 0.101|x3: 0.038|x4: 0.071|x5: 0.086|x6: 0.158|x7: 0.040|x8: 0.039|x9: 0.055|x10: 0.053|x11: 0.066|x12: 0.060|x13: 0.000|x14: 0.376|x15: 0.033|x16: 0.047|x17: 0.000
 </t>
@@ -3328,7 +3328,7 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.107|x3: 0.000|x4: 0.077|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.500|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.064|x2: 0.090|x3: 0.072|x4: 0.159|x5: 0.064|x6: 0.000|x7: 0.000|x8: 0.278|x9: 0.000|x10: 0.204|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.108|x15: 0.500|x16: 0.085|x17: 0.000
-TOP2VEC -&gt; x1: 0.000|x2: 0.166|x3: 0.000|x4: 0.107|x5: 0.185|x6: 0.000|x7: 0.161|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.122|x12: 0.078|x13: 0.205|x14: 0.148|x15: 0.290|x16: 0.199|x17: 0.000
+TOP2VEC -&gt; x1: 0.000|x2: 0.166|x3: 0.000|x4: 0.107|x5: 0.185|x6: 0.000|x7: 0.161|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.122|x12: 0.078|x13: 0.206|x14: 0.148|x15: 0.290|x16: 0.199|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.500|x16: 0.000|x17: 0.000
 MEAN -&gt; x1: 0.016|x2: 0.091|x3: 0.018|x4: 0.086|x5: 0.062|x6: 0.000|x7: 0.040|x8: 0.070|x9: 0.000|x10: 0.051|x11: 0.030|x12: 0.020|x13: 0.051|x14: 0.064|x15: 0.447|x16: 0.071|x17: 0.000
 </t>
@@ -3359,8 +3359,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.151|x4: 0.116|x5: 0.070|x6: 0.000|x7: 0.000|x8: 0.097|x9: 0.081|x10: 0.000|x11: 0.082|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.139|x3: 0.191|x4: 0.379|x5: 0.134|x6: 0.000|x7: 0.176|x8: 0.120|x9: 0.260|x10: 0.077|x11: 0.068|x12: 0.000|x13: 0.189|x14: 0.000|x15: 0.000|x16: 0.086|x17: 0.000
 TOP2VEC -&gt; x1: 0.145|x2: 0.194|x3: 0.267|x4: 0.265|x5: 0.113|x6: 0.307|x7: 0.309|x8: 0.186|x9: 0.179|x10: 0.000|x11: 0.183|x12: 0.079|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.218|x12: 0.000|x13: 0.177|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.036|x2: 0.083|x3: 0.152|x4: 0.190|x5: 0.079|x6: 0.077|x7: 0.121|x8: 0.101|x9: 0.130|x10: 0.019|x11: 0.138|x12: 0.020|x13: 0.092|x14: 0.000|x15: 0.000|x16: 0.021|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.211|x12: 0.000|x13: 0.184|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.036|x2: 0.083|x3: 0.152|x4: 0.190|x5: 0.079|x6: 0.077|x7: 0.121|x8: 0.101|x9: 0.130|x10: 0.019|x11: 0.136|x12: 0.020|x13: 0.093|x14: 0.000|x15: 0.000|x16: 0.021|x17: 0.000
 </t>
         </is>
       </c>
@@ -3390,7 +3390,7 @@
 LDA -&gt; x1: 0.000|x2: 0.000|x3: 0.094|x4: 0.074|x5: 0.264|x6: 0.114|x7: 0.000|x8: 0.146|x9: 0.158|x10: 0.070|x11: 0.000|x12: 0.080|x13: 0.150|x14: 0.311|x15: 0.148|x16: 0.210|x17: 0.000
 TOP2VEC -&gt; x1: 0.000|x2: 0.092|x3: 0.000|x4: 0.156|x5: 0.071|x6: 0.000|x7: 0.311|x8: 0.000|x9: 0.000|x10: 0.064|x11: 0.237|x12: 0.135|x13: 0.196|x14: 0.133|x15: 0.123|x16: 0.145|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.322|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.000|x2: 0.023|x3: 0.024|x4: 0.078|x5: 0.104|x6: 0.047|x7: 0.078|x8: 0.037|x9: 0.137|x10: 0.033|x11: 0.077|x12: 0.054|x13: 0.086|x14: 0.111|x15: 0.068|x16: 0.089|x17: 0.000
+MEAN -&gt; x1: 0.000|x2: 0.023|x3: 0.024|x4: 0.077|x5: 0.104|x6: 0.047|x7: 0.078|x8: 0.037|x9: 0.137|x10: 0.033|x11: 0.077|x12: 0.054|x13: 0.086|x14: 0.111|x15: 0.068|x16: 0.089|x17: 0.000
 </t>
         </is>
       </c>
@@ -3419,7 +3419,7 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.082|x4: 0.226|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.126|x10: 0.000|x11: 0.170|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.127|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.081|x2: 0.000|x3: 0.238|x4: 0.149|x5: 0.128|x6: 0.000|x7: 0.149|x8: 0.187|x9: 0.165|x10: 0.000|x11: 0.236|x12: 0.000|x13: 0.241|x14: 0.056|x15: 0.114|x16: 0.076|x17: 0.000
 TOP2VEC -&gt; x1: 0.136|x2: 0.172|x3: 0.000|x4: 0.178|x5: 0.095|x6: 0.272|x7: 0.263|x8: 0.000|x9: 0.000|x10: 0.062|x11: 0.162|x12: 0.284|x13: 0.000|x14: 0.182|x15: 0.082|x16: 0.000|x17: 0.000
-BERTOPIC -&gt; x1: 0.168|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.227|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+BERTOPIC -&gt; x1: 0.169|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.227|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 MEAN -&gt; x1: 0.096|x2: 0.043|x3: 0.080|x4: 0.138|x5: 0.056|x6: 0.068|x7: 0.103|x8: 0.047|x9: 0.073|x10: 0.015|x11: 0.142|x12: 0.071|x13: 0.117|x14: 0.059|x15: 0.081|x16: 0.019|x17: 0.000
 </t>
         </is>
@@ -3479,8 +3479,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.087|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.500|x14: 0.061|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.063|x3: 0.292|x4: 0.193|x5: 0.000|x6: 0.000|x7: 0.055|x8: 0.170|x9: 0.204|x10: 0.000|x11: 0.080|x12: 0.073|x13: 0.344|x14: 0.232|x15: 0.000|x16: 0.115|x17: 0.000
 TOP2VEC -&gt; x1: 0.000|x2: 0.062|x3: 0.000|x4: 0.067|x5: 0.000|x6: 0.000|x7: 0.256|x8: 0.000|x9: 0.317|x10: 0.129|x11: 0.342|x12: 0.333|x13: 0.292|x14: 0.149|x15: 0.164|x16: 0.000|x17: 0.000
-BERTOPIC -&gt; x1: 0.099|x2: 0.071|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.500|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.025|x2: 0.049|x3: 0.073|x4: 0.065|x5: 0.000|x6: 0.000|x7: 0.078|x8: 0.043|x9: 0.152|x10: 0.032|x11: 0.106|x12: 0.101|x13: 0.409|x14: 0.111|x15: 0.041|x16: 0.029|x17: 0.000
+BERTOPIC -&gt; x1: 0.134|x2: 0.097|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.500|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.034|x2: 0.055|x3: 0.073|x4: 0.065|x5: 0.000|x6: 0.000|x7: 0.078|x8: 0.043|x9: 0.152|x10: 0.032|x11: 0.106|x12: 0.101|x13: 0.409|x14: 0.111|x15: 0.041|x16: 0.029|x17: 0.000
 </t>
         </is>
       </c>
@@ -3508,7 +3508,7 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.115|x10: 0.117|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.108|x15: 0.165|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.000|x3: 0.099|x4: 0.194|x5: 0.000|x6: 0.000|x7: 0.093|x8: 0.156|x9: 0.345|x10: 0.000|x11: 0.000|x12: 0.165|x13: 0.156|x14: 0.391|x15: 0.000|x16: 0.222|x17: 0.000
-TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.176|x5: 0.168|x6: 0.243|x7: 0.458|x8: 0.000|x9: 0.194|x10: 0.000|x11: 0.405|x12: 0.500|x13: 0.330|x14: 0.268|x15: 0.136|x16: 0.000|x17: 0.000
+TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.176|x5: 0.168|x6: 0.243|x7: 0.458|x8: 0.000|x9: 0.194|x10: 0.000|x11: 0.405|x12: 0.500|x13: 0.329|x14: 0.267|x15: 0.136|x16: 0.000|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.500|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 MEAN -&gt; x1: 0.000|x2: 0.000|x3: 0.025|x4: 0.092|x5: 0.042|x6: 0.186|x7: 0.138|x8: 0.039|x9: 0.163|x10: 0.029|x11: 0.101|x12: 0.166|x13: 0.121|x14: 0.192|x15: 0.075|x16: 0.056|x17: 0.000
 </t>
@@ -3568,9 +3568,9 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.197|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.500|x15: 0.292|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.000|x3: 0.150|x4: 0.070|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.158|x9: 0.000|x10: 0.000|x11: 0.064|x12: 0.077|x13: 0.204|x14: 0.443|x15: 0.500|x16: 0.132|x17: 0.000
-TOP2VEC -&gt; x1: 0.165|x2: 0.118|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.116|x7: 0.120|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.181|x12: 0.342|x13: 0.211|x14: 0.475|x15: 0.450|x16: 0.170|x17: 0.000
+TOP2VEC -&gt; x1: 0.165|x2: 0.119|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.116|x7: 0.120|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.181|x12: 0.342|x13: 0.210|x14: 0.475|x15: 0.450|x16: 0.170|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.500|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.041|x2: 0.030|x3: 0.038|x4: 0.017|x5: 0.000|x6: 0.029|x7: 0.030|x8: 0.039|x9: 0.000|x10: 0.049|x11: 0.061|x12: 0.105|x13: 0.104|x14: 0.479|x15: 0.311|x16: 0.076|x17: 0.000
+MEAN -&gt; x1: 0.041|x2: 0.030|x3: 0.038|x4: 0.017|x5: 0.000|x6: 0.029|x7: 0.030|x8: 0.039|x9: 0.000|x10: 0.049|x11: 0.061|x12: 0.105|x13: 0.104|x14: 0.479|x15: 0.311|x16: 0.075|x17: 0.000
 </t>
         </is>
       </c>
@@ -3660,7 +3660,7 @@
 LDA -&gt; x1: 0.000|x2: 0.000|x3: 0.103|x4: 0.081|x5: 0.059|x6: 0.112|x7: 0.129|x8: 0.083|x9: 0.266|x10: 0.112|x11: 0.000|x12: 0.061|x13: 0.122|x14: 0.375|x15: 0.196|x16: 0.120|x17: 0.000
 TOP2VEC -&gt; x1: 0.066|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.115|x6: 0.204|x7: 0.127|x8: 0.000|x9: 0.128|x10: 0.000|x11: 0.208|x12: 0.198|x13: 0.076|x14: 0.208|x15: 0.000|x16: 0.061|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.500|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.016|x2: 0.000|x3: 0.026|x4: 0.020|x5: 0.044|x6: 0.204|x7: 0.064|x8: 0.021|x9: 0.123|x10: 0.028|x11: 0.088|x12: 0.065|x13: 0.049|x14: 0.332|x15: 0.049|x16: 0.045|x17: 0.000
+MEAN -&gt; x1: 0.016|x2: 0.000|x3: 0.026|x4: 0.020|x5: 0.043|x6: 0.204|x7: 0.064|x8: 0.021|x9: 0.123|x10: 0.028|x11: 0.088|x12: 0.065|x13: 0.050|x14: 0.332|x15: 0.049|x16: 0.045|x17: 0.000
 </t>
         </is>
       </c>
@@ -3688,7 +3688,7 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.197|x10: 0.000|x11: 0.155|x12: 0.059|x13: 0.000|x14: 0.500|x15: 0.130|x16: 0.161|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.000|x3: 0.147|x4: 0.110|x5: 0.131|x6: 0.073|x7: 0.000|x8: 0.000|x9: 0.168|x10: 0.000|x11: 0.166|x12: 0.153|x13: 0.169|x14: 0.354|x15: 0.084|x16: 0.264|x17: 0.000
-TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.060|x7: 0.290|x8: 0.000|x9: 0.185|x10: 0.125|x11: 0.220|x12: 0.250|x13: 0.481|x14: 0.238|x15: 0.000|x16: 0.000|x17: 0.000
+TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.060|x7: 0.290|x8: 0.000|x9: 0.185|x10: 0.125|x11: 0.220|x12: 0.249|x13: 0.481|x14: 0.238|x15: 0.000|x16: 0.000|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.500|x15: 0.000|x16: 0.000|x17: 0.000
 MEAN -&gt; x1: 0.000|x2: 0.000|x3: 0.037|x4: 0.027|x5: 0.033|x6: 0.033|x7: 0.072|x8: 0.000|x9: 0.138|x10: 0.031|x11: 0.135|x12: 0.115|x13: 0.162|x14: 0.398|x15: 0.054|x16: 0.106|x17: 0.000
 </t>
@@ -3720,7 +3720,7 @@
 LDA -&gt; x1: 0.000|x2: 0.070|x3: 0.088|x4: 0.188|x5: 0.093|x6: 0.061|x7: 0.000|x8: 0.000|x9: 0.158|x10: 0.000|x11: 0.159|x12: 0.099|x13: 0.085|x14: 0.367|x15: 0.324|x16: 0.127|x17: 0.000
 TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.068|x7: 0.187|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.262|x12: 0.184|x13: 0.177|x14: 0.225|x15: 0.176|x16: 0.097|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.500|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.000|x2: 0.018|x3: 0.041|x4: 0.047|x5: 0.023|x6: 0.032|x7: 0.047|x8: 0.000|x9: 0.090|x10: 0.000|x11: 0.138|x12: 0.071|x13: 0.065|x14: 0.389|x15: 0.223|x16: 0.056|x17: 0.000
+MEAN -&gt; x1: 0.000|x2: 0.018|x3: 0.041|x4: 0.047|x5: 0.023|x6: 0.032|x7: 0.047|x8: 0.000|x9: 0.090|x10: 0.000|x11: 0.138|x12: 0.071|x13: 0.065|x14: 0.388|x15: 0.223|x16: 0.056|x17: 0.000
 </t>
         </is>
       </c>
@@ -3898,9 +3898,9 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.091|x10: 0.000|x11: 0.065|x12: 0.000|x13: 0.082|x14: 0.000|x15: 0.500|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.085|x3: 0.138|x4: 0.122|x5: 0.000|x6: 0.000|x7: 0.170|x8: 0.000|x9: 0.176|x10: 0.000|x11: 0.000|x12: 0.055|x13: 0.125|x14: 0.115|x15: 0.500|x16: 0.106|x17: 0.000
-TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.196|x5: 0.091|x6: 0.175|x7: 0.222|x8: 0.075|x9: 0.123|x10: 0.106|x11: 0.228|x12: 0.122|x13: 0.226|x14: 0.178|x15: 0.231|x16: 0.000|x17: 0.000
+TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.196|x5: 0.091|x6: 0.175|x7: 0.222|x8: 0.075|x9: 0.123|x10: 0.106|x11: 0.228|x12: 0.122|x13: 0.226|x14: 0.179|x15: 0.231|x16: 0.000|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.500|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.000|x2: 0.021|x3: 0.034|x4: 0.080|x5: 0.023|x6: 0.044|x7: 0.098|x8: 0.019|x9: 0.098|x10: 0.027|x11: 0.073|x12: 0.044|x13: 0.108|x14: 0.073|x15: 0.433|x16: 0.027|x17: 0.000
+MEAN -&gt; x1: 0.000|x2: 0.021|x3: 0.034|x4: 0.080|x5: 0.023|x6: 0.044|x7: 0.098|x8: 0.019|x9: 0.098|x10: 0.027|x11: 0.073|x12: 0.044|x13: 0.108|x14: 0.074|x15: 0.433|x16: 0.027|x17: 0.000
 </t>
         </is>
       </c>
@@ -4020,7 +4020,7 @@
 LDA -&gt; x1: 0.135|x2: 0.063|x3: 0.114|x4: 0.169|x5: 0.195|x6: 0.000|x7: 0.000|x8: 0.116|x9: 0.065|x10: 0.061|x11: 0.236|x12: 0.095|x13: 0.000|x14: 0.000|x15: 0.367|x16: 0.203|x17: 0.000
 TOP2VEC -&gt; x1: 0.000|x2: 0.095|x3: 0.169|x4: 0.080|x5: 0.140|x6: 0.150|x7: 0.242|x8: 0.000|x9: 0.000|x10: 0.051|x11: 0.320|x12: 0.262|x13: 0.351|x14: 0.077|x15: 0.102|x16: 0.178|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.500|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.034|x2: 0.039|x3: 0.096|x4: 0.062|x5: 0.084|x6: 0.038|x7: 0.060|x8: 0.029|x9: 0.016|x10: 0.028|x11: 0.161|x12: 0.162|x13: 0.088|x14: 0.019|x15: 0.292|x16: 0.120|x17: 0.000
+MEAN -&gt; x1: 0.034|x2: 0.040|x3: 0.096|x4: 0.062|x5: 0.084|x6: 0.038|x7: 0.060|x8: 0.029|x9: 0.016|x10: 0.028|x11: 0.161|x12: 0.162|x13: 0.088|x14: 0.019|x15: 0.292|x16: 0.120|x17: 0.000
 </t>
         </is>
       </c>
@@ -4048,9 +4048,9 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.116|x12: 0.155|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.175|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.062|x3: 0.171|x4: 0.233|x5: 0.139|x6: 0.000|x7: 0.060|x8: 0.078|x9: 0.223|x10: 0.063|x11: 0.075|x12: 0.201|x13: 0.000|x14: 0.205|x15: 0.000|x16: 0.309|x17: 0.000
-TOP2VEC -&gt; x1: 0.000|x2: 0.071|x3: 0.476|x4: 0.137|x5: 0.158|x6: 0.301|x7: 0.236|x8: 0.000|x9: 0.000|x10: 0.177|x11: 0.237|x12: 0.365|x13: 0.256|x14: 0.257|x15: 0.146|x16: 0.207|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.475|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.000|x2: 0.033|x3: 0.162|x4: 0.093|x5: 0.074|x6: 0.194|x7: 0.074|x8: 0.020|x9: 0.056|x10: 0.060|x11: 0.107|x12: 0.180|x13: 0.064|x14: 0.115|x15: 0.036|x16: 0.173|x17: 0.000
+TOP2VEC -&gt; x1: 0.000|x2: 0.071|x3: 0.476|x4: 0.137|x5: 0.158|x6: 0.301|x7: 0.236|x8: 0.000|x9: 0.000|x10: 0.177|x11: 0.238|x12: 0.365|x13: 0.256|x14: 0.257|x15: 0.146|x16: 0.207|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.451|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.000|x2: 0.033|x3: 0.162|x4: 0.093|x5: 0.074|x6: 0.188|x7: 0.074|x8: 0.020|x9: 0.056|x10: 0.060|x11: 0.107|x12: 0.180|x13: 0.064|x14: 0.115|x15: 0.036|x16: 0.173|x17: 0.000
 </t>
         </is>
       </c>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>0.20:11, 0.14:4</t>
+          <t>0.21:11, 0.14:4</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4079,8 +4079,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.112|x12: 0.000|x13: 0.000|x14: 0.097|x15: 0.109|x16: 0.138|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.142|x3: 0.101|x4: 0.406|x5: 0.052|x6: 0.000|x7: 0.000|x8: 0.199|x9: 0.099|x10: 0.096|x11: 0.184|x12: 0.061|x13: 0.071|x14: 0.086|x15: 0.241|x16: 0.081|x17: 0.000
 TOP2VEC -&gt; x1: 0.000|x2: 0.112|x3: 0.287|x4: 0.150|x5: 0.172|x6: 0.077|x7: 0.124|x8: 0.000|x9: 0.000|x10: 0.070|x11: 0.197|x12: 0.196|x13: 0.052|x14: 0.236|x15: 0.000|x16: 0.000|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.073|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.298|x12: 0.090|x13: 0.077|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.000|x2: 0.063|x3: 0.097|x4: 0.139|x5: 0.056|x6: 0.019|x7: 0.049|x8: 0.050|x9: 0.025|x10: 0.042|x11: 0.198|x12: 0.087|x13: 0.050|x14: 0.105|x15: 0.087|x16: 0.055|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.331|x12: 0.094|x13: 0.112|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.000|x2: 0.064|x3: 0.097|x4: 0.139|x5: 0.056|x6: 0.019|x7: 0.031|x8: 0.050|x9: 0.025|x10: 0.042|x11: 0.206|x12: 0.088|x13: 0.059|x14: 0.105|x15: 0.087|x16: 0.055|x17: 0.000
 </t>
         </is>
       </c>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>0.19:4, 0.15:5, 0.13:7</t>
+          <t>0.19:4, 0.16:5, 0.13:7</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4109,8 +4109,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.219|x2: 0.000|x3: 0.000|x4: 0.129|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.088|x10: 0.000|x11: 0.084|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.062|x2: 0.168|x3: 0.118|x4: 0.176|x5: 0.133|x6: 0.000|x7: 0.116|x8: 0.376|x9: 0.106|x10: 0.092|x11: 0.100|x12: 0.080|x13: 0.118|x14: 0.000|x15: 0.000|x16: 0.176|x17: 0.000
 TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.473|x5: 0.156|x6: 0.197|x7: 0.408|x8: 0.000|x9: 0.000|x10: 0.226|x11: 0.194|x12: 0.388|x13: 0.088|x14: 0.206|x15: 0.000|x16: 0.000|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.324|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.070|x2: 0.042|x3: 0.030|x4: 0.194|x5: 0.153|x6: 0.049|x7: 0.131|x8: 0.094|x9: 0.049|x10: 0.079|x11: 0.095|x12: 0.117|x13: 0.051|x14: 0.052|x15: 0.000|x16: 0.044|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.336|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.070|x2: 0.042|x3: 0.030|x4: 0.194|x5: 0.156|x6: 0.049|x7: 0.131|x8: 0.094|x9: 0.049|x10: 0.079|x11: 0.095|x12: 0.117|x13: 0.051|x14: 0.052|x15: 0.000|x16: 0.044|x17: 0.000
 </t>
         </is>
       </c>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0.19:16, 0.18:1, 0.15:5, 0.13:14</t>
+          <t>0.25:5, 0.19:16, 0.18:1, 0.13:14</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4139,8 +4139,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.319|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.120|x15: 0.000|x16: 0.227|x17: 0.000
 LDA -&gt; x1: 0.161|x2: 0.099|x3: 0.122|x4: 0.072|x5: 0.269|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.156|x10: 0.000|x11: 0.000|x12: 0.211|x13: 0.151|x14: 0.190|x15: 0.000|x16: 0.387|x17: 0.000
 TOP2VEC -&gt; x1: 0.250|x2: 0.074|x3: 0.110|x4: 0.273|x5: 0.332|x6: 0.227|x7: 0.182|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.112|x12: 0.108|x13: 0.000|x14: 0.192|x15: 0.000|x16: 0.130|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.182|x2: 0.043|x3: 0.058|x4: 0.086|x5: 0.150|x6: 0.057|x7: 0.046|x8: 0.000|x9: 0.039|x10: 0.000|x11: 0.028|x12: 0.080|x13: 0.038|x14: 0.126|x15: 0.000|x16: 0.186|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.384|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.182|x2: 0.043|x3: 0.058|x4: 0.086|x5: 0.246|x6: 0.057|x7: 0.046|x8: 0.000|x9: 0.039|x10: 0.000|x11: 0.028|x12: 0.080|x13: 0.038|x14: 0.126|x15: 0.000|x16: 0.186|x17: 0.000
 </t>
         </is>
       </c>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>0.19:11, 0.15:3, 0.14:15, 0.12:13</t>
+          <t>0.19:11, 0.15:3, 0.12:13, 0.12:15</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4169,8 +4169,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.122|x6: 0.100|x7: 0.000|x8: 0.000|x9: 0.205|x10: 0.000|x11: 0.178|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.146|x3: 0.392|x4: 0.000|x5: 0.112|x6: 0.000|x7: 0.000|x8: 0.105|x9: 0.179|x10: 0.000|x11: 0.180|x12: 0.080|x13: 0.239|x14: 0.138|x15: 0.108|x16: 0.142|x17: 0.000
 TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.198|x4: 0.116|x5: 0.185|x6: 0.124|x7: 0.338|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.398|x12: 0.291|x13: 0.245|x14: 0.216|x15: 0.073|x16: 0.065|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.374|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.000|x2: 0.037|x3: 0.148|x4: 0.029|x5: 0.105|x6: 0.056|x7: 0.084|x8: 0.026|x9: 0.096|x10: 0.000|x11: 0.189|x12: 0.093|x13: 0.121|x14: 0.088|x15: 0.139|x16: 0.052|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.301|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.000|x2: 0.037|x3: 0.148|x4: 0.029|x5: 0.105|x6: 0.056|x7: 0.084|x8: 0.026|x9: 0.096|x10: 0.000|x11: 0.189|x12: 0.093|x13: 0.121|x14: 0.088|x15: 0.120|x16: 0.052|x17: 0.000
 </t>
         </is>
       </c>
@@ -4199,8 +4199,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.147|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.103|x7: 0.000|x8: 0.000|x9: 0.090|x10: 0.000|x11: 0.179|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.303|x3: 0.126|x4: 0.228|x5: 0.000|x6: 0.000|x7: 0.090|x8: 0.000|x9: 0.118|x10: 0.000|x11: 0.285|x12: 0.161|x13: 0.061|x14: 0.194|x15: 0.000|x16: 0.253|x17: 0.000
 TOP2VEC -&gt; x1: 0.072|x2: 0.000|x3: 0.000|x4: 0.134|x5: 0.000|x6: 0.000|x7: 0.288|x8: 0.000|x9: 0.000|x10: 0.085|x11: 0.500|x12: 0.096|x13: 0.240|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.080|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.500|x17: 0.000
-MEAN -&gt; x1: 0.018|x2: 0.113|x3: 0.032|x4: 0.090|x5: 0.020|x6: 0.026|x7: 0.095|x8: 0.000|x9: 0.052|x10: 0.021|x11: 0.241|x12: 0.064|x13: 0.075|x14: 0.048|x15: 0.000|x16: 0.188|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.077|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.500|x17: 0.000
+MEAN -&gt; x1: 0.018|x2: 0.113|x3: 0.032|x4: 0.090|x5: 0.019|x6: 0.026|x7: 0.095|x8: 0.000|x9: 0.052|x10: 0.021|x11: 0.241|x12: 0.064|x13: 0.075|x14: 0.048|x15: 0.000|x16: 0.188|x17: 0.000
 </t>
         </is>
       </c>
@@ -4229,8 +4229,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.090|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.152|x10: 0.000|x11: 0.136|x12: 0.000|x13: 0.092|x14: 0.097|x15: 0.000|x16: 0.181|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.000|x3: 0.106|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.229|x8: 0.148|x9: 0.448|x10: 0.000|x11: 0.000|x12: 0.183|x13: 0.131|x14: 0.286|x15: 0.000|x16: 0.291|x17: 0.000
 TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.195|x5: 0.000|x6: 0.112|x7: 0.274|x8: 0.088|x9: 0.230|x10: 0.168|x11: 0.225|x12: 0.284|x13: 0.300|x14: 0.287|x15: 0.060|x16: 0.112|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.234|x12: 0.000|x13: 0.161|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.000|x2: 0.000|x3: 0.026|x4: 0.071|x5: 0.000|x6: 0.028|x7: 0.126|x8: 0.059|x9: 0.208|x10: 0.042|x11: 0.149|x12: 0.117|x13: 0.171|x14: 0.167|x15: 0.015|x16: 0.146|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.232|x12: 0.000|x13: 0.163|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.000|x2: 0.000|x3: 0.026|x4: 0.071|x5: 0.000|x6: 0.028|x7: 0.126|x8: 0.059|x9: 0.208|x10: 0.042|x11: 0.148|x12: 0.117|x13: 0.172|x14: 0.167|x15: 0.015|x16: 0.146|x17: 0.000
 </t>
         </is>
       </c>
@@ -4378,7 +4378,7 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.412|x4: 0.000|x5: 0.500|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.126|x12: 0.000|x13: 0.091|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.082|x2: 0.072|x3: 0.215|x4: 0.192|x5: 0.360|x6: 0.086|x7: 0.064|x8: 0.111|x9: 0.111|x10: 0.000|x11: 0.085|x12: 0.000|x13: 0.238|x14: 0.105|x15: 0.000|x16: 0.098|x17: 0.000
-TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.115|x4: 0.079|x5: 0.092|x6: 0.153|x7: 0.254|x8: 0.000|x9: 0.146|x10: 0.056|x11: 0.357|x12: 0.060|x13: 0.000|x14: 0.144|x15: 0.218|x16: 0.262|x17: 0.000
+TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.115|x4: 0.079|x5: 0.092|x6: 0.153|x7: 0.254|x8: 0.000|x9: 0.146|x10: 0.056|x11: 0.357|x12: 0.060|x13: 0.000|x14: 0.144|x15: 0.217|x16: 0.262|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.500|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 MEAN -&gt; x1: 0.021|x2: 0.018|x3: 0.310|x4: 0.068|x5: 0.238|x6: 0.060|x7: 0.079|x8: 0.028|x9: 0.064|x10: 0.014|x11: 0.142|x12: 0.015|x13: 0.082|x14: 0.062|x15: 0.054|x16: 0.090|x17: 0.000
 </t>
@@ -4408,7 +4408,7 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.154|x4: 0.166|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.193|x3: 0.126|x4: 0.500|x5: 0.080|x6: 0.074|x7: 0.000|x8: 0.000|x9: 0.079|x10: 0.000|x11: 0.101|x12: 0.000|x13: 0.071|x14: 0.119|x15: 0.460|x16: 0.000|x17: 0.000
-TOP2VEC -&gt; x1: 0.093|x2: 0.000|x3: 0.000|x4: 0.207|x5: 0.000|x6: 0.241|x7: 0.392|x8: 0.000|x9: 0.000|x10: 0.215|x11: 0.103|x12: 0.175|x13: 0.403|x14: 0.176|x15: 0.000|x16: 0.000|x17: 0.000
+TOP2VEC -&gt; x1: 0.093|x2: 0.000|x3: 0.000|x4: 0.206|x5: 0.000|x6: 0.241|x7: 0.392|x8: 0.000|x9: 0.000|x10: 0.215|x11: 0.103|x12: 0.175|x13: 0.403|x14: 0.177|x15: 0.000|x16: 0.000|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.500|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 MEAN -&gt; x1: 0.023|x2: 0.048|x3: 0.195|x4: 0.218|x5: 0.020|x6: 0.079|x7: 0.098|x8: 0.000|x9: 0.020|x10: 0.054|x11: 0.051|x12: 0.044|x13: 0.118|x14: 0.074|x15: 0.115|x16: 0.000|x17: 0.000
 </t>
@@ -4438,7 +4438,7 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.088|x3: 0.315|x4: 0.000|x5: 0.076|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.097|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.318|x3: 0.133|x4: 0.297|x5: 0.170|x6: 0.000|x7: 0.140|x8: 0.000|x9: 0.282|x10: 0.096|x11: 0.000|x12: 0.000|x13: 0.102|x14: 0.204|x15: 0.000|x16: 0.078|x17: 0.000
-TOP2VEC -&gt; x1: 0.061|x2: 0.277|x3: 0.387|x4: 0.000|x5: 0.111|x6: 0.000|x7: 0.090|x8: 0.176|x9: 0.324|x10: 0.140|x11: 0.204|x12: 0.500|x13: 0.102|x14: 0.256|x15: 0.000|x16: 0.119|x17: 0.000
+TOP2VEC -&gt; x1: 0.061|x2: 0.278|x3: 0.387|x4: 0.000|x5: 0.111|x6: 0.000|x7: 0.090|x8: 0.177|x9: 0.324|x10: 0.139|x11: 0.204|x12: 0.500|x13: 0.102|x14: 0.256|x15: 0.000|x16: 0.119|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.500|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 MEAN -&gt; x1: 0.015|x2: 0.171|x3: 0.334|x4: 0.074|x5: 0.089|x6: 0.000|x7: 0.057|x8: 0.044|x9: 0.151|x10: 0.059|x11: 0.051|x12: 0.125|x13: 0.051|x14: 0.115|x15: 0.024|x16: 0.049|x17: 0.000
 </t>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>0.33:16, 0.12:3</t>
+          <t>0.31:16, 0.12:3</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4469,8 +4469,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.069|x3: 0.259|x4: 0.000|x5: 0.000|x6: 0.082|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.079|x15: 0.000|x16: 0.250|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.221|x3: 0.235|x4: 0.000|x5: 0.068|x6: 0.188|x7: 0.000|x8: 0.078|x9: 0.149|x10: 0.168|x11: 0.000|x12: 0.162|x13: 0.063|x14: 0.116|x15: 0.076|x16: 0.295|x17: 0.000
 TOP2VEC -&gt; x1: 0.128|x2: 0.145|x3: 0.000|x4: 0.000|x5: 0.173|x6: 0.000|x7: 0.138|x8: 0.109|x9: 0.000|x10: 0.223|x11: 0.067|x12: 0.226|x13: 0.130|x14: 0.152|x15: 0.000|x16: 0.285|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.134|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.476|x17: 0.000
-MEAN -&gt; x1: 0.032|x2: 0.109|x3: 0.124|x4: 0.000|x5: 0.094|x6: 0.068|x7: 0.034|x8: 0.047|x9: 0.037|x10: 0.098|x11: 0.017|x12: 0.097|x13: 0.048|x14: 0.087|x15: 0.019|x16: 0.327|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.148|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.405|x17: 0.000
+MEAN -&gt; x1: 0.032|x2: 0.109|x3: 0.124|x4: 0.000|x5: 0.097|x6: 0.068|x7: 0.034|x8: 0.047|x9: 0.037|x10: 0.098|x11: 0.017|x12: 0.097|x13: 0.048|x14: 0.087|x15: 0.019|x16: 0.309|x17: 0.000
 </t>
         </is>
       </c>
@@ -4498,7 +4498,7 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.127|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.142|x10: 0.108|x11: 0.287|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.000|x3: 0.152|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.257|x8: 0.000|x9: 0.382|x10: 0.180|x11: 0.134|x12: 0.151|x13: 0.188|x14: 0.149|x15: 0.000|x16: 0.227|x17: 0.000
-TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.384|x8: 0.255|x9: 0.320|x10: 0.279|x11: 0.119|x12: 0.160|x13: 0.107|x14: 0.249|x15: 0.000|x16: 0.000|x17: 0.000
+TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.383|x8: 0.255|x9: 0.321|x10: 0.279|x11: 0.119|x12: 0.160|x13: 0.107|x14: 0.249|x15: 0.000|x16: 0.000|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.500|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 MEAN -&gt; x1: 0.000|x2: 0.000|x3: 0.070|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.160|x8: 0.064|x9: 0.211|x10: 0.142|x11: 0.260|x12: 0.078|x13: 0.074|x14: 0.100|x15: 0.000|x16: 0.057|x17: 0.000
 </t>
@@ -4589,8 +4589,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.106|x3: 0.000|x4: 0.134|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.207|x10: 0.259|x11: 0.123|x12: 0.108|x13: 0.000|x14: 0.114|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.095|x3: 0.000|x4: 0.375|x5: 0.000|x6: 0.000|x7: 0.087|x8: 0.153|x9: 0.326|x10: 0.000|x11: 0.000|x12: 0.140|x13: 0.000|x14: 0.409|x15: 0.086|x16: 0.150|x17: 0.000
 TOP2VEC -&gt; x1: 0.090|x2: 0.083|x3: 0.000|x4: 0.419|x5: 0.071|x6: 0.000|x7: 0.320|x8: 0.000|x9: 0.151|x10: 0.119|x11: 0.197|x12: 0.262|x13: 0.204|x14: 0.000|x15: 0.000|x16: 0.068|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.113|x9: 0.500|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.023|x2: 0.071|x3: 0.000|x4: 0.232|x5: 0.018|x6: 0.000|x7: 0.102|x8: 0.067|x9: 0.296|x10: 0.094|x11: 0.080|x12: 0.127|x13: 0.051|x14: 0.131|x15: 0.021|x16: 0.055|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.500|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.023|x2: 0.071|x3: 0.000|x4: 0.232|x5: 0.018|x6: 0.000|x7: 0.102|x8: 0.038|x9: 0.296|x10: 0.094|x11: 0.080|x12: 0.127|x13: 0.051|x14: 0.131|x15: 0.021|x16: 0.055|x17: 0.000
 </t>
         </is>
       </c>
@@ -4611,16 +4611,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0.40:15, 0.23:6, 0.17:14, 0.16:13, 0.12:2</t>
+          <t>0.42:15, 0.23:6, 0.17:14, 0.16:13, 0.12:2</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.060|x2: 0.122|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.500|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.058|x14: 0.091|x15: 0.445|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.000|x3: 0.188|x4: 0.135|x5: 0.000|x6: 0.192|x7: 0.083|x8: 0.109|x9: 0.000|x10: 0.000|x11: 0.114|x12: 0.000|x13: 0.203|x14: 0.438|x15: 0.358|x16: 0.000|x17: 0.000
-TOP2VEC -&gt; x1: 0.086|x2: 0.376|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.224|x7: 0.216|x8: 0.101|x9: 0.161|x10: 0.000|x11: 0.241|x12: 0.162|x13: 0.361|x14: 0.157|x15: 0.362|x16: 0.000|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.452|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.037|x2: 0.124|x3: 0.047|x4: 0.034|x5: 0.000|x6: 0.229|x7: 0.075|x8: 0.052|x9: 0.040|x10: 0.000|x11: 0.089|x12: 0.040|x13: 0.156|x14: 0.171|x15: 0.404|x16: 0.000|x17: 0.000
+TOP2VEC -&gt; x1: 0.086|x2: 0.376|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.224|x7: 0.216|x8: 0.101|x9: 0.161|x10: 0.000|x11: 0.241|x12: 0.161|x13: 0.361|x14: 0.157|x15: 0.361|x16: 0.000|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.500|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.037|x2: 0.124|x3: 0.047|x4: 0.034|x5: 0.000|x6: 0.229|x7: 0.075|x8: 0.052|x9: 0.040|x10: 0.000|x11: 0.089|x12: 0.040|x13: 0.156|x14: 0.171|x15: 0.416|x16: 0.000|x17: 0.000
 </t>
         </is>
       </c>
@@ -4648,9 +4648,9 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.106|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.122|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.000|x3: 0.213|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.162|x8: 0.206|x9: 0.500|x10: 0.053|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.413|x15: 0.101|x16: 0.069|x17: 0.000
-TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.229|x4: 0.000|x5: 0.000|x6: 0.136|x7: 0.363|x8: 0.000|x9: 0.325|x10: 0.349|x11: 0.160|x12: 0.147|x13: 0.396|x14: 0.241|x15: 0.000|x16: 0.000|x17: 0.000
-BERTOPIC -&gt; x1: 0.252|x2: 0.188|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.080|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.121|x12: 0.087|x13: 0.257|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.063|x2: 0.047|x3: 0.110|x4: 0.000|x5: 0.000|x6: 0.034|x7: 0.151|x8: 0.052|x9: 0.233|x10: 0.101|x11: 0.070|x12: 0.058|x13: 0.163|x14: 0.194|x15: 0.025|x16: 0.017|x17: 0.000
+TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.228|x4: 0.000|x5: 0.000|x6: 0.135|x7: 0.363|x8: 0.000|x9: 0.325|x10: 0.349|x11: 0.160|x12: 0.147|x13: 0.396|x14: 0.241|x15: 0.000|x16: 0.000|x17: 0.000
+BERTOPIC -&gt; x1: 0.250|x2: 0.186|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.080|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.120|x12: 0.087|x13: 0.262|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.063|x2: 0.046|x3: 0.110|x4: 0.000|x5: 0.000|x6: 0.034|x7: 0.151|x8: 0.052|x9: 0.233|x10: 0.101|x11: 0.070|x12: 0.058|x13: 0.165|x14: 0.194|x15: 0.025|x16: 0.017|x17: 0.000
 </t>
         </is>
       </c>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>0.29:10, 0.26:4, 0.20:1, 0.15:9, 0.14:8</t>
+          <t>0.26:10, 0.26:4, 0.18:1, 0.15:9</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4679,8 +4679,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.189|x2: 0.000|x3: 0.000|x4: 0.195|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.093|x10: 0.297|x11: 0.000|x12: 0.134|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.067|x2: 0.221|x3: 0.063|x4: 0.338|x5: 0.054|x6: 0.000|x7: 0.100|x8: 0.130|x9: 0.375|x10: 0.216|x11: 0.000|x12: 0.000|x13: 0.054|x14: 0.000|x15: 0.132|x16: 0.071|x17: 0.000
 TOP2VEC -&gt; x1: 0.337|x2: 0.000|x3: 0.000|x4: 0.500|x5: 0.232|x6: 0.000|x7: 0.172|x8: 0.127|x9: 0.146|x10: 0.434|x11: 0.106|x12: 0.102|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.210|x17: 0.000
-BERTOPIC -&gt; x1: 0.197|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.306|x9: 0.000|x10: 0.219|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.197|x2: 0.055|x3: 0.016|x4: 0.258|x5: 0.071|x6: 0.000|x7: 0.068|x8: 0.141|x9: 0.154|x10: 0.291|x11: 0.026|x12: 0.059|x13: 0.013|x14: 0.000|x15: 0.033|x16: 0.070|x17: 0.000
+BERTOPIC -&gt; x1: 0.142|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.077|x9: 0.000|x10: 0.107|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.184|x2: 0.055|x3: 0.016|x4: 0.258|x5: 0.071|x6: 0.000|x7: 0.068|x8: 0.084|x9: 0.154|x10: 0.263|x11: 0.026|x12: 0.059|x13: 0.013|x14: 0.000|x15: 0.033|x16: 0.070|x17: 0.000
 </t>
         </is>
       </c>
@@ -4701,16 +4701,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>0.23:12, 0.19:7, 0.18:14, 0.16:9</t>
+          <t>0.24:12, 0.19:7, 0.18:14, 0.16:9</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.095|x4: 0.065|x5: 0.000|x6: 0.071|x7: 0.149|x8: 0.000|x9: 0.273|x10: 0.000|x11: 0.197|x12: 0.178|x13: 0.000|x14: 0.173|x15: 0.000|x16: 0.077|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.000|x3: 0.079|x4: 0.112|x5: 0.000|x6: 0.000|x7: 0.165|x8: 0.072|x9: 0.372|x10: 0.076|x11: 0.136|x12: 0.148|x13: 0.062|x14: 0.302|x15: 0.087|x16: 0.210|x17: 0.000
-TOP2VEC -&gt; x1: 0.053|x2: 0.000|x3: 0.067|x4: 0.258|x5: 0.065|x6: 0.084|x7: 0.250|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.097|x12: 0.149|x13: 0.130|x14: 0.227|x15: 0.000|x16: 0.055|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.189|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.441|x13: 0.107|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.013|x2: 0.000|x3: 0.060|x4: 0.109|x5: 0.016|x6: 0.039|x7: 0.188|x8: 0.018|x9: 0.161|x10: 0.019|x11: 0.107|x12: 0.229|x13: 0.075|x14: 0.176|x15: 0.022|x16: 0.085|x17: 0.000
+TOP2VEC -&gt; x1: 0.053|x2: 0.000|x3: 0.067|x4: 0.258|x5: 0.065|x6: 0.084|x7: 0.250|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.097|x12: 0.149|x13: 0.130|x14: 0.228|x15: 0.000|x16: 0.055|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.190|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.479|x13: 0.101|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.013|x2: 0.000|x3: 0.060|x4: 0.109|x5: 0.016|x6: 0.039|x7: 0.188|x8: 0.018|x9: 0.161|x10: 0.019|x11: 0.107|x12: 0.239|x13: 0.073|x14: 0.176|x15: 0.022|x16: 0.085|x17: 0.000
 </t>
         </is>
       </c>
@@ -4731,7 +4731,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>0.34:8, 0.22:10, 0.20:14, 0.17:9, 0.15:2</t>
+          <t>0.36:8, 0.20:14, 0.19:10, 0.17:9, 0.15:2</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4739,8 +4739,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.082|x2: 0.109|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.500|x9: 0.163|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.074|x14: 0.104|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.271|x3: 0.000|x4: 0.217|x5: 0.000|x6: 0.000|x7: 0.077|x8: 0.096|x9: 0.291|x10: 0.263|x11: 0.000|x12: 0.085|x13: 0.000|x14: 0.350|x15: 0.080|x16: 0.091|x17: 0.000
 TOP2VEC -&gt; x1: 0.186|x2: 0.217|x3: 0.132|x4: 0.240|x5: 0.255|x6: 0.000|x7: 0.099|x8: 0.324|x9: 0.218|x10: 0.450|x11: 0.000|x12: 0.180|x13: 0.075|x14: 0.331|x15: 0.000|x16: 0.105|x17: 0.000
-BERTOPIC -&gt; x1: 0.176|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.426|x9: 0.000|x10: 0.164|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.111|x2: 0.149|x3: 0.033|x4: 0.114|x5: 0.064|x6: 0.000|x7: 0.044|x8: 0.337|x9: 0.168|x10: 0.219|x11: 0.000|x12: 0.066|x13: 0.037|x14: 0.196|x15: 0.020|x16: 0.049|x17: 0.000
+BERTOPIC -&gt; x1: 0.065|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.500|x9: 0.000|x10: 0.062|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.083|x2: 0.149|x3: 0.033|x4: 0.114|x5: 0.064|x6: 0.000|x7: 0.044|x8: 0.355|x9: 0.168|x10: 0.194|x11: 0.000|x12: 0.066|x13: 0.037|x14: 0.196|x15: 0.020|x16: 0.049|x17: 0.000
 </t>
         </is>
       </c>
@@ -4768,9 +4768,9 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.113|x8: 0.228|x9: 0.199|x10: 0.000|x11: 0.141|x12: 0.067|x13: 0.205|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.000|x3: 0.174|x4: 0.063|x5: 0.000|x6: 0.000|x7: 0.081|x8: 0.347|x9: 0.308|x10: 0.084|x11: 0.098|x12: 0.072|x13: 0.212|x14: 0.058|x15: 0.201|x16: 0.122|x17: 0.000
-TOP2VEC -&gt; x1: 0.111|x2: 0.083|x3: 0.000|x4: 0.397|x5: 0.194|x6: 0.000|x7: 0.304|x8: 0.172|x9: 0.194|x10: 0.235|x11: 0.282|x12: 0.171|x13: 0.000|x14: 0.000|x15: 0.054|x16: 0.156|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.166|x9: 0.297|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.028|x2: 0.021|x3: 0.044|x4: 0.115|x5: 0.048|x6: 0.000|x7: 0.125|x8: 0.228|x9: 0.250|x10: 0.080|x11: 0.130|x12: 0.077|x13: 0.104|x14: 0.015|x15: 0.064|x16: 0.069|x17: 0.000
+TOP2VEC -&gt; x1: 0.111|x2: 0.083|x3: 0.000|x4: 0.397|x5: 0.194|x6: 0.000|x7: 0.304|x8: 0.172|x9: 0.194|x10: 0.235|x11: 0.283|x12: 0.171|x13: 0.000|x14: 0.000|x15: 0.054|x16: 0.156|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.164|x9: 0.317|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.028|x2: 0.021|x3: 0.044|x4: 0.115|x5: 0.048|x6: 0.000|x7: 0.125|x8: 0.228|x9: 0.254|x10: 0.080|x11: 0.130|x12: 0.077|x13: 0.104|x14: 0.015|x15: 0.064|x16: 0.069|x17: 0.000
 </t>
         </is>
       </c>
@@ -4791,16 +4791,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>0.44:8, 0.19:9</t>
+          <t>0.45:8, 0.19:9</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.154|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.500|x9: 0.181|x10: 0.089|x11: 0.106|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.110|x3: 0.207|x4: 0.169|x5: 0.000|x6: 0.000|x7: 0.146|x8: 0.397|x9: 0.275|x10: 0.206|x11: 0.000|x12: 0.070|x13: 0.052|x14: 0.068|x15: 0.000|x16: 0.119|x17: 0.000
-TOP2VEC -&gt; x1: 0.167|x2: 0.000|x3: 0.106|x4: 0.277|x5: 0.000|x6: 0.000|x7: 0.152|x8: 0.417|x9: 0.315|x10: 0.000|x11: 0.085|x12: 0.218|x13: 0.063|x14: 0.074|x15: 0.000|x16: 0.000|x17: 0.000
-BERTOPIC -&gt; x1: 0.158|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.432|x9: 0.000|x10: 0.167|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.120|x2: 0.028|x3: 0.078|x4: 0.111|x5: 0.000|x6: 0.000|x7: 0.075|x8: 0.437|x9: 0.193|x10: 0.116|x11: 0.048|x12: 0.072|x13: 0.029|x14: 0.035|x15: 0.000|x16: 0.030|x17: 0.000
+TOP2VEC -&gt; x1: 0.162|x2: 0.000|x3: 0.103|x4: 0.269|x5: 0.000|x6: 0.052|x7: 0.148|x8: 0.406|x9: 0.306|x10: 0.000|x11: 0.083|x12: 0.212|x13: 0.061|x14: 0.071|x15: 0.000|x16: 0.000|x17: 0.000
+BERTOPIC -&gt; x1: 0.127|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.500|x9: 0.000|x10: 0.136|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.111|x2: 0.028|x3: 0.078|x4: 0.109|x5: 0.000|x6: 0.013|x7: 0.074|x8: 0.451|x9: 0.191|x10: 0.108|x11: 0.047|x12: 0.070|x13: 0.028|x14: 0.035|x15: 0.000|x16: 0.030|x17: 0.000
 </t>
         </is>
       </c>
@@ -4858,7 +4858,7 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.101|x2: 0.000|x3: 0.088|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.138|x8: 0.177|x9: 0.220|x10: 0.000|x11: 0.079|x12: 0.000|x13: 0.408|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.217|x2: 0.000|x3: 0.201|x4: 0.000|x5: 0.000|x6: 0.103|x7: 0.169|x8: 0.000|x9: 0.500|x10: 0.000|x11: 0.000|x12: 0.097|x13: 0.252|x14: 0.000|x15: 0.000|x16: 0.143|x17: 0.000
-TOP2VEC -&gt; x1: 0.173|x2: 0.000|x3: 0.000|x4: 0.130|x5: 0.000|x6: 0.000|x7: 0.217|x8: 0.000|x9: 0.481|x10: 0.263|x11: 0.142|x12: 0.072|x13: 0.311|x14: 0.107|x15: 0.000|x16: 0.000|x17: 0.000
+TOP2VEC -&gt; x1: 0.172|x2: 0.000|x3: 0.000|x4: 0.130|x5: 0.000|x6: 0.000|x7: 0.218|x8: 0.000|x9: 0.481|x10: 0.263|x11: 0.142|x12: 0.072|x13: 0.312|x14: 0.107|x15: 0.000|x16: 0.000|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 MEAN -&gt; x1: 0.122|x2: 0.000|x3: 0.072|x4: 0.033|x5: 0.000|x6: 0.026|x7: 0.131|x8: 0.044|x9: 0.300|x10: 0.066|x11: 0.055|x12: 0.042|x13: 0.243|x14: 0.027|x15: 0.000|x16: 0.036|x17: 0.000
 </t>
@@ -4888,7 +4888,7 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.142|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.204|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.151|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.218|x3: 0.166|x4: 0.244|x5: 0.357|x6: 0.132|x7: 0.000|x8: 0.137|x9: 0.000|x10: 0.130|x11: 0.000|x12: 0.000|x13: 0.236|x14: 0.059|x15: 0.000|x16: 0.141|x17: 0.000
-TOP2VEC -&gt; x1: 0.402|x2: 0.325|x3: 0.202|x4: 0.261|x5: 0.151|x6: 0.000|x7: 0.143|x8: 0.242|x9: 0.000|x10: 0.346|x11: 0.312|x12: 0.354|x13: 0.000|x14: 0.217|x15: 0.052|x16: 0.500|x17: 0.000
+TOP2VEC -&gt; x1: 0.402|x2: 0.324|x3: 0.202|x4: 0.261|x5: 0.151|x6: 0.000|x7: 0.143|x8: 0.241|x9: 0.000|x10: 0.346|x11: 0.312|x12: 0.354|x13: 0.000|x14: 0.217|x15: 0.052|x16: 0.500|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.500|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 MEAN -&gt; x1: 0.136|x2: 0.136|x3: 0.092|x4: 0.126|x5: 0.303|x6: 0.033|x7: 0.036|x8: 0.095|x9: 0.000|x10: 0.119|x11: 0.078|x12: 0.088|x13: 0.059|x14: 0.069|x15: 0.013|x16: 0.198|x17: 0.000
 </t>
@@ -4911,16 +4911,16 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>0.19:13, 0.17:8, 0.14:5</t>
+          <t>0.19:13, 0.18:8, 0.14:5</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.110|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.093|x6: 0.000|x7: 0.000|x8: 0.173|x9: 0.091|x10: 0.000|x11: 0.070|x12: 0.000|x13: 0.251|x14: 0.000|x15: 0.095|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.061|x2: 0.000|x3: 0.172|x4: 0.000|x5: 0.251|x6: 0.000|x7: 0.074|x8: 0.331|x9: 0.273|x10: 0.081|x11: 0.112|x12: 0.000|x13: 0.202|x14: 0.063|x15: 0.078|x16: 0.122|x17: 0.000
-TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.331|x5: 0.222|x6: 0.072|x7: 0.212|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.120|x12: 0.138|x13: 0.291|x14: 0.192|x15: 0.000|x16: 0.000|x17: 0.000
-BERTOPIC -&gt; x1: 0.234|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.181|x9: 0.078|x10: 0.286|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.101|x2: 0.000|x3: 0.043|x4: 0.083|x5: 0.141|x6: 0.018|x7: 0.071|x8: 0.171|x9: 0.111|x10: 0.092|x11: 0.075|x12: 0.034|x13: 0.186|x14: 0.064|x15: 0.043|x16: 0.030|x17: 0.000
+TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.331|x5: 0.222|x6: 0.072|x7: 0.212|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.120|x12: 0.138|x13: 0.292|x14: 0.192|x15: 0.000|x16: 0.000|x17: 0.000
+BERTOPIC -&gt; x1: 0.142|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.229|x9: 0.099|x10: 0.176|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.078|x2: 0.000|x3: 0.043|x4: 0.083|x5: 0.141|x6: 0.018|x7: 0.071|x8: 0.183|x9: 0.116|x10: 0.064|x11: 0.075|x12: 0.034|x13: 0.186|x14: 0.064|x15: 0.043|x16: 0.030|x17: 0.000
 </t>
         </is>
       </c>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>0.25:8, 0.17:9, 0.15:10, 0.14:7</t>
+          <t>0.21:8, 0.19:10, 0.18:9, 0.14:7</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -4949,8 +4949,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.091|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.242|x9: 0.103|x10: 0.000|x11: 0.084|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.134|x3: 0.158|x4: 0.276|x5: 0.161|x6: 0.000|x7: 0.201|x8: 0.000|x9: 0.415|x10: 0.198|x11: 0.000|x12: 0.000|x13: 0.065|x14: 0.119|x15: 0.000|x16: 0.093|x17: 0.000
 TOP2VEC -&gt; x1: 0.000|x2: 0.139|x3: 0.000|x4: 0.178|x5: 0.000|x6: 0.000|x7: 0.365|x8: 0.276|x9: 0.146|x10: 0.386|x11: 0.110|x12: 0.106|x13: 0.260|x14: 0.080|x15: 0.000|x16: 0.089|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.500|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.000|x2: 0.068|x3: 0.062|x4: 0.113|x5: 0.040|x6: 0.000|x7: 0.142|x8: 0.255|x9: 0.166|x10: 0.146|x11: 0.049|x12: 0.027|x13: 0.081|x14: 0.050|x15: 0.000|x16: 0.046|x17: 0.000
+BERTOPIC -&gt; x1: 0.189|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.333|x9: 0.074|x10: 0.183|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.047|x2: 0.068|x3: 0.062|x4: 0.113|x5: 0.040|x6: 0.000|x7: 0.142|x8: 0.213|x9: 0.185|x10: 0.192|x11: 0.049|x12: 0.027|x13: 0.081|x14: 0.050|x15: 0.000|x16: 0.046|x17: 0.000
 </t>
         </is>
       </c>
@@ -4979,8 +4979,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.094|x10: 0.000|x11: 0.500|x12: 0.057|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.000|x3: 0.280|x4: 0.064|x5: 0.000|x6: 0.000|x7: 0.059|x8: 0.070|x9: 0.222|x10: 0.000|x11: 0.500|x12: 0.072|x13: 0.083|x14: 0.071|x15: 0.071|x16: 0.078|x17: 0.000
 TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.391|x8: 0.000|x9: 0.096|x10: 0.000|x11: 0.500|x12: 0.306|x13: 0.080|x14: 0.102|x15: 0.096|x16: 0.000|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.500|x12: 0.000|x13: 0.115|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.000|x2: 0.000|x3: 0.070|x4: 0.016|x5: 0.000|x6: 0.000|x7: 0.113|x8: 0.018|x9: 0.103|x10: 0.000|x11: 0.500|x12: 0.109|x13: 0.069|x14: 0.043|x15: 0.042|x16: 0.019|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.500|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.000|x2: 0.000|x3: 0.070|x4: 0.016|x5: 0.000|x6: 0.000|x7: 0.113|x8: 0.018|x9: 0.103|x10: 0.000|x11: 0.500|x12: 0.109|x13: 0.041|x14: 0.043|x15: 0.042|x16: 0.019|x17: 0.000
 </t>
         </is>
       </c>
@@ -5009,8 +5009,8 @@
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.112|x7: 0.000|x8: 0.000|x9: 0.250|x10: 0.089|x11: 0.000|x12: 0.087|x13: 0.000|x14: 0.000|x15: 0.165|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.090|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.252|x7: 0.137|x8: 0.088|x9: 0.500|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.058|x14: 0.285|x15: 0.400|x16: 0.000|x17: 0.000
 TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.162|x5: 0.117|x6: 0.000|x7: 0.417|x8: 0.000|x9: 0.211|x10: 0.061|x11: 0.134|x12: 0.129|x13: 0.170|x14: 0.452|x15: 0.195|x16: 0.000|x17: 0.000
-BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.483|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.022|x2: 0.000|x3: 0.000|x4: 0.040|x5: 0.029|x6: 0.091|x7: 0.138|x8: 0.022|x9: 0.240|x10: 0.037|x11: 0.033|x12: 0.054|x13: 0.057|x14: 0.184|x15: 0.311|x16: 0.000|x17: 0.000
+BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.464|x16: 0.000|x17: 0.000
+MEAN -&gt; x1: 0.022|x2: 0.000|x3: 0.000|x4: 0.040|x5: 0.029|x6: 0.091|x7: 0.138|x8: 0.022|x9: 0.240|x10: 0.038|x11: 0.033|x12: 0.054|x13: 0.057|x14: 0.184|x15: 0.306|x16: 0.000|x17: 0.000
 </t>
         </is>
       </c>
@@ -5098,7 +5098,7 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.097|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.066|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.204|x10: 0.000|x11: 0.178|x12: 0.000|x13: 0.000|x14: 0.073|x15: 0.000|x16: 0.169|x17: 0.000
 LDA -&gt; x1: 0.000|x2: 0.080|x3: 0.154|x4: 0.063|x5: 0.129|x6: 0.000|x7: 0.130|x8: 0.148|x9: 0.153|x10: 0.124|x11: 0.000|x12: 0.140|x13: 0.172|x14: 0.273|x15: 0.000|x16: 0.253|x17: 0.000
-TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.144|x5: 0.175|x6: 0.129|x7: 0.215|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.301|x12: 0.128|x13: 0.000|x14: 0.229|x15: 0.118|x16: 0.079|x17: 0.000
+TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.145|x5: 0.175|x6: 0.129|x7: 0.215|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.302|x12: 0.128|x13: 0.000|x14: 0.229|x15: 0.118|x16: 0.079|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.322|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000
 MEAN -&gt; x1: 0.024|x2: 0.020|x3: 0.039|x4: 0.052|x5: 0.092|x6: 0.032|x7: 0.086|x8: 0.037|x9: 0.169|x10: 0.031|x11: 0.120|x12: 0.067|x13: 0.043|x14: 0.144|x15: 0.029|x16: 0.125|x17: 0.000
 </t>
@@ -5158,9 +5158,9 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.177|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.398|x15: 0.000|x16: 0.000|x17: 0.000
 LDA -&gt; x1: 0.099|x2: 0.000|x3: 0.000|x4: 0.138|x5: 0.416|x6: 0.138|x7: 0.108|x8: 0.000|x9: 0.286|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.064|x14: 0.411|x15: 0.000|x16: 0.160|x17: 0.000
-TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.082|x6: 0.164|x7: 0.179|x8: 0.000|x9: 0.079|x10: 0.000|x11: 0.238|x12: 0.243|x13: 0.226|x14: 0.500|x15: 0.290|x16: 0.000|x17: 0.000
+TOP2VEC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.082|x6: 0.164|x7: 0.179|x8: 0.000|x9: 0.078|x10: 0.000|x11: 0.238|x12: 0.243|x13: 0.226|x14: 0.500|x15: 0.290|x16: 0.000|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.500|x15: 0.000|x16: 0.000|x17: 0.000
-MEAN -&gt; x1: 0.025|x2: 0.000|x3: 0.000|x4: 0.035|x5: 0.124|x6: 0.075|x7: 0.072|x8: 0.000|x9: 0.135|x10: 0.000|x11: 0.060|x12: 0.061|x13: 0.072|x14: 0.452|x15: 0.072|x16: 0.040|x17: 0.000
+MEAN -&gt; x1: 0.025|x2: 0.000|x3: 0.000|x4: 0.035|x5: 0.124|x6: 0.075|x7: 0.072|x8: 0.000|x9: 0.135|x10: 0.000|x11: 0.060|x12: 0.061|x13: 0.073|x14: 0.452|x15: 0.072|x16: 0.040|x17: 0.000
 </t>
         </is>
       </c>
@@ -5218,7 +5218,7 @@
         <is>
           <t xml:space="preserve">NMF -&gt; x1: 0.000|x2: 0.069|x3: 0.000|x4: 0.090|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.099|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.096|x15: 0.228|x16: 0.112|x17: 0.000
 LDA -&gt; x1: 0.096|x2: 0.117|x3: 0.000|x4: 0.382|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.108|x9: 0.170|x10: 0.000|x11: 0.000|x12: 0.158|x13: 0.000|x14: 0.183|x15: 0.386|x16: 0.220|x17: 0.000
-TOP2VEC -&gt; x1: 0.063|x2: 0.208|x3: 0.000|x4: 0.175|x5: 0.099|x6: 0.276|x7: 0.158|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.349|x12: 0.269|x13: 0.055|x14: 0.193|x15: 0.224|x16: 0.065|x17: 0.000
+TOP2VEC -&gt; x1: 0.063|x2: 0.208|x3: 0.000|x4: 0.175|x5: 0.099|x6: 0.275|x7: 0.158|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.349|x12: 0.269|x13: 0.055|x14: 0.193|x15: 0.223|x16: 0.065|x17: 0.000
 BERTOPIC -&gt; x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.500|x16: 0.000|x17: 0.000
 MEAN -&gt; x1: 0.040|x2: 0.099|x3: 0.000|x4: 0.162|x5: 0.025|x6: 0.069|x7: 0.039|x8: 0.027|x9: 0.067|x10: 0.000|x11: 0.087|x12: 0.107|x13: 0.014|x14: 0.118|x15: 0.334|x16: 0.099|x17: 0.000
 </t>
